--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44405</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
         <v>17000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L7" t="n">
         <v>15000</v>
       </c>
-      <c r="L7" t="n">
-        <v>16000</v>
-      </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44211</v>
+        <v>44405</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,29 +936,29 @@
         <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44398</v>
+        <v>44391</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,12 +1099,300 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>120</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>806</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>18</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>140</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+      <c r="K13" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>972</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>18</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>18</v>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44211</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
         <v>140</v>
       </c>
       <c r="K2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L2" t="n">
         <v>5000</v>
       </c>
-      <c r="L2" t="n">
-        <v>6000</v>
-      </c>
       <c r="M2" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q2" t="n">
         <v>10</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44363</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>17600</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>806</v>
+        <v>978</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44405</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,11 +641,11 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
@@ -654,7 +654,7 @@
         <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44412</v>
+        <v>44363</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44435</v>
+        <v>44221</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44405</v>
+        <v>44433</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44211</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44398</v>
+        <v>44412</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44211</v>
+        <v>44454</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,41 +492,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>4750</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>475</v>
+        <v>1083</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44398</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -582,7 +582,7 @@
         <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44405</v>
+        <v>44398</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44363</v>
+        <v>44412</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44221</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>5500</v>
+        <v>17600</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>550</v>
+        <v>978</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44398</v>
+        <v>44391</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44391</v>
+        <v>44433</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44221</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44412</v>
+        <v>44363</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,12 +1387,84 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>140</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44454</v>
+        <v>44221</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1083</v>
+        <v>550</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44412</v>
+        <v>44405</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,11 +713,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
         <v>17000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44211</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>17600</v>
+        <v>4750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>978</v>
+        <v>475</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44412</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
         <v>17000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44454</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44405</v>
+        <v>44435</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
         <v>17000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>17600</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>806</v>
+        <v>978</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44363</v>
+        <v>44433</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
         <v>14000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44211</v>
+        <v>44363</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
         <v>140</v>
       </c>
       <c r="K15" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>4750</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>475</v>
+        <v>806</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44363</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -504,29 +504,29 @@
         <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44398</v>
+        <v>44391</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44405</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44211</v>
+        <v>44412</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
         <v>17000</v>
@@ -870,7 +870,7 @@
         <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44454</v>
+        <v>44405</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44435</v>
+        <v>44398</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44435</v>
+        <v>44454</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44377</v>
+        <v>44221</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>17600</v>
+        <v>5500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>978</v>
+        <v>550</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44433</v>
+        <v>44211</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44363</v>
+        <v>44433</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,11 +1433,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44363</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>17600</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>806</v>
+        <v>978</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44391</v>
+        <v>44221</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,41 +564,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M3" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>861</v>
+        <v>550</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44412</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,11 +641,11 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44412</v>
+        <v>44433</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44377</v>
+        <v>44405</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
         <v>17000</v>
@@ -870,7 +870,7 @@
         <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44405</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
         <v>17000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44454</v>
+        <v>44398</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44221</v>
+        <v>44211</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>140</v>
       </c>
       <c r="K12" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L12" t="n">
         <v>5000</v>
       </c>
-      <c r="L12" t="n">
-        <v>6000</v>
-      </c>
       <c r="M12" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44211</v>
+        <v>44454</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="L13" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M13" t="n">
-        <v>4750</v>
+        <v>19500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>475</v>
+        <v>1083</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44433</v>
+        <v>44363</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44405</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44526</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,29 +936,29 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44435</v>
+        <v>44526</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1008,29 +1008,29 @@
         <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>3250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>806</v>
+        <v>325</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,11 +1073,11 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
         <v>17000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44211</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>4750</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>475</v>
+        <v>806</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44454</v>
+        <v>44398</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44363</v>
+        <v>44398</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44391</v>
+        <v>44211</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,43 +1428,259 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>140</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>Cultivar IV Región</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>160</v>
+      </c>
+      <c r="K16" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>1083</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>18</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>140</v>
+      </c>
+      <c r="K17" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>806</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>18</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="J18" t="n">
         <v>100</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K18" t="n">
         <v>15000</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L18" t="n">
         <v>16000</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M18" t="n">
         <v>15500</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P15" t="n">
+      <c r="P18" t="n">
         <v>861</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q18" t="n">
         <v>18</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44391</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>17600</v>
+        <v>15500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>978</v>
+        <v>861</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,41 +564,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44412</v>
+        <v>44433</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44433</v>
+        <v>44405</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
         <v>17000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44433</v>
+        <v>44454</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,11 +1073,11 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
         <v>17000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44435</v>
+        <v>44398</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44398</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44398</v>
+        <v>44363</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44398</v>
+        <v>44221</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L14" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>861</v>
+        <v>550</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44211</v>
+        <v>44435</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,32 +1437,32 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44454</v>
+        <v>44435</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44363</v>
+        <v>44377</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>17600</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>806</v>
+        <v>978</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44391</v>
+        <v>44211</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K18" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L18" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>861</v>
+        <v>475</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44398</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1152,29 +1152,29 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44398</v>
+        <v>44533</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M12" t="n">
-        <v>15500</v>
+        <v>4500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>861</v>
+        <v>450</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44363</v>
+        <v>44398</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44221</v>
+        <v>44398</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>550</v>
+        <v>861</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44435</v>
+        <v>44363</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44435</v>
+        <v>44221</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1590,7 +1590,7 @@
         <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44211</v>
+        <v>44435</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,43 +1644,187 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>120</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>806</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>18</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+      <c r="K19" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>17600</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>978</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>18</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>Cultivar XV región</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="J20" t="n">
         <v>140</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K20" t="n">
         <v>4500</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L20" t="n">
         <v>5000</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M20" t="n">
         <v>4750</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P18" t="n">
+      <c r="P20" t="n">
         <v>475</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q20" t="n">
         <v>10</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44391</v>
+        <v>44412</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44405</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,41 +708,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
         <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44454</v>
+        <v>44211</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>4500</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>19500</v>
+        <v>4750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1083</v>
+        <v>475</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44377</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -864,29 +864,29 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>5250</v>
+        <v>17600</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>525</v>
+        <v>978</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44526</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,29 +936,29 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44526</v>
+        <v>44435</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1008,29 +1008,29 @@
         <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>3250</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>325</v>
+        <v>806</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44412</v>
+        <v>44363</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44398</v>
+        <v>44526</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1296,29 +1296,29 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44398</v>
+        <v>44526</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1368,29 +1368,29 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L14" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="M14" t="n">
-        <v>15500</v>
+        <v>4250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>861</v>
+        <v>425</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44363</v>
+        <v>44526</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>3250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>806</v>
+        <v>325</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44221</v>
+        <v>44391</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M16" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>550</v>
+        <v>861</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44435</v>
+        <v>44405</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K17" t="n">
         <v>17000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44435</v>
+        <v>44398</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44377</v>
+        <v>44398</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M19" t="n">
-        <v>17600</v>
+        <v>15500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>978</v>
+        <v>861</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44211</v>
+        <v>44454</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>4750</v>
+        <v>19500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>475</v>
+        <v>1083</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44554</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L11" t="n">
         <v>6000</v>
       </c>
-      <c r="L11" t="n">
-        <v>7000</v>
-      </c>
       <c r="M11" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q11" t="n">
         <v>10</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L13" t="n">
         <v>5000</v>
       </c>
-      <c r="L13" t="n">
-        <v>5500</v>
-      </c>
       <c r="M13" t="n">
-        <v>5250</v>
+        <v>4500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="Q13" t="n">
         <v>10</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L14" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M14" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="Q14" t="n">
         <v>10</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L15" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M15" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="Q15" t="n">
         <v>10</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44391</v>
+        <v>44526</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="L16" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="M16" t="n">
-        <v>15500</v>
+        <v>3250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>861</v>
+        <v>325</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44405</v>
+        <v>44391</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K18" t="n">
         <v>17000</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44454</v>
+        <v>44398</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M20" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,12 +1819,84 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>160</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1083</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>18</v>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>17000</v>
@@ -510,7 +510,7 @@
         <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,7 +569,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44363</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,29 +720,29 @@
         <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44211</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>17600</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>978</v>
+        <v>806</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44391</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44363</v>
+        <v>44433</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,11 +1073,11 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
         <v>14000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44554</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
         <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M11" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q11" t="n">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>650</v>
+        <v>425</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
         <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L13" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M13" t="n">
-        <v>4500</v>
+        <v>3250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>450</v>
+        <v>325</v>
       </c>
       <c r="Q13" t="n">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44211</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L14" t="n">
         <v>5000</v>
       </c>
-      <c r="L14" t="n">
-        <v>5500</v>
-      </c>
       <c r="M14" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q14" t="n">
         <v>10</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44526</v>
+        <v>44405</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,32 +1437,32 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K15" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44526</v>
+        <v>44221</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M16" t="n">
-        <v>3250</v>
+        <v>5500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>325</v>
+        <v>550</v>
       </c>
       <c r="Q16" t="n">
         <v>10</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44391</v>
+        <v>44554</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M17" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>861</v>
+        <v>550</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44405</v>
+        <v>44454</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44398</v>
+        <v>44412</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K19" t="n">
         <v>17000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44398</v>
+        <v>44533</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>15500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>861</v>
+        <v>650</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44454</v>
+        <v>44533</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,41 +1860,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="M21" t="n">
-        <v>19500</v>
+        <v>4500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1083</v>
+        <v>450</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44398</v>
+        <v>44363</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44398</v>
+        <v>44412</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44363</v>
+        <v>44398</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44435</v>
+        <v>44398</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L8" t="n">
         <v>15000</v>
       </c>
-      <c r="L8" t="n">
-        <v>16000</v>
-      </c>
       <c r="M8" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44433</v>
+        <v>44405</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
         <v>17000</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44433</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>5250</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>525</v>
+        <v>806</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44526</v>
+        <v>44211</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L12" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M12" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44526</v>
+        <v>44391</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>3250</v>
+        <v>15500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>325</v>
+        <v>861</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44211</v>
+        <v>44454</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M14" t="n">
-        <v>4750</v>
+        <v>19500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>475</v>
+        <v>1083</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44405</v>
+        <v>44526</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44221</v>
+        <v>44526</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L16" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M16" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="Q16" t="n">
         <v>10</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44554</v>
+        <v>44526</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M17" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>550</v>
+        <v>325</v>
       </c>
       <c r="Q17" t="n">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44454</v>
+        <v>44533</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>19500</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1083</v>
+        <v>650</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44412</v>
+        <v>44533</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,41 +1716,41 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44533</v>
+        <v>44221</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L20" t="n">
         <v>6000</v>
       </c>
-      <c r="L20" t="n">
-        <v>7000</v>
-      </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q20" t="n">
         <v>10</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44533</v>
+        <v>44554</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L21" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M21" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q21" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44412</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
         <v>17000</v>
@@ -510,7 +510,7 @@
         <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44363</v>
+        <v>44391</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44412</v>
+        <v>44405</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,11 +641,11 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44398</v>
+        <v>44211</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,41 +708,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44398</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>15500</v>
+        <v>17600</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>861</v>
+        <v>978</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>4500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>806</v>
+        <v>450</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44405</v>
+        <v>44526</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,41 +996,41 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44433</v>
+        <v>44526</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,29 +1080,29 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44433</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1152,29 +1152,29 @@
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>3250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>806</v>
+        <v>325</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44211</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L13" t="n">
         <v>15000</v>
       </c>
-      <c r="L13" t="n">
-        <v>16000</v>
-      </c>
       <c r="M13" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44454</v>
+        <v>44398</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L15" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M15" t="n">
-        <v>5250</v>
+        <v>15500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>525</v>
+        <v>861</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44526</v>
+        <v>44433</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,29 +1512,29 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44526</v>
+        <v>44433</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,29 +1584,29 @@
         <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>3250</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>325</v>
+        <v>806</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44533</v>
+        <v>44363</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>650</v>
+        <v>806</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44533</v>
+        <v>44454</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,41 +1716,41 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>4500</v>
+        <v>19500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>450</v>
+        <v>1083</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44221</v>
+        <v>44554</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
         <v>5000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44554</v>
+        <v>44221</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
         <v>5000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44412</v>
+        <v>44405</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,11 +497,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
         <v>17000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44391</v>
+        <v>44211</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M3" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>861</v>
+        <v>475</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44405</v>
+        <v>44433</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44211</v>
+        <v>44433</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,41 +708,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>4750</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>475</v>
+        <v>806</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44398</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -798,7 +798,7 @@
         <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44398</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>650</v>
+        <v>861</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44454</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>4500</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>450</v>
+        <v>1083</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44526</v>
+        <v>44221</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,17 +1005,17 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
         <v>5000</v>
       </c>
       <c r="L9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M9" t="n">
         <v>5500</v>
       </c>
-      <c r="M9" t="n">
-        <v>5250</v>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q9" t="n">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44526</v>
+        <v>44391</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,29 +1080,29 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>4250</v>
+        <v>15500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>425</v>
+        <v>861</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44554</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>3250</v>
+        <v>5500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>325</v>
+        <v>550</v>
       </c>
       <c r="Q11" t="n">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44363</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44398</v>
+        <v>44526</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="M15" t="n">
-        <v>15500</v>
+        <v>5250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>861</v>
+        <v>525</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44433</v>
+        <v>44526</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,29 +1512,29 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44433</v>
+        <v>44526</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,29 +1584,29 @@
         <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>3250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>806</v>
+        <v>325</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44363</v>
+        <v>44412</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44454</v>
+        <v>44533</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>19500</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1083</v>
+        <v>650</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44554</v>
+        <v>44533</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L20" t="n">
         <v>5000</v>
       </c>
-      <c r="L20" t="n">
-        <v>6000</v>
-      </c>
       <c r="M20" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q20" t="n">
         <v>10</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44221</v>
+        <v>44377</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>5500</v>
+        <v>17600</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>550</v>
+        <v>978</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44405</v>
+        <v>44398</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,11 +497,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>17000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44211</v>
+        <v>44398</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>4750</v>
+        <v>15500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>475</v>
+        <v>861</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44433</v>
+        <v>44221</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,41 +636,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44398</v>
+        <v>44526</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,29 +792,29 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44398</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -864,29 +864,29 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>4250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>861</v>
+        <v>425</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44454</v>
+        <v>44526</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>3000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>3250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1083</v>
+        <v>325</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44221</v>
+        <v>44454</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>550</v>
+        <v>1083</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44391</v>
+        <v>44433</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44554</v>
+        <v>44433</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44363</v>
+        <v>44377</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>17600</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>806</v>
+        <v>978</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44554</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>44363</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
         <v>14000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>525</v>
+        <v>650</v>
       </c>
       <c r="Q15" t="n">
         <v>10</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,17 +1509,17 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
         <v>4000</v>
       </c>
       <c r="L16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M16" t="n">
         <v>4500</v>
       </c>
-      <c r="M16" t="n">
-        <v>4250</v>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="Q16" t="n">
         <v>10</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44526</v>
+        <v>44405</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K17" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44533</v>
+        <v>44211</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>4750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44533</v>
+        <v>44435</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>17600</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>978</v>
+        <v>806</v>
       </c>
       <c r="Q21" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44398</v>
+        <v>44211</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,41 +492,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,41 +636,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44391</v>
+        <v>44526</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,41 +708,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="M5" t="n">
-        <v>15500</v>
+        <v>5250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>861</v>
+        <v>525</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L6" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M6" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="Q6" t="n">
         <v>10</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L7" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M7" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="Q7" t="n">
         <v>10</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44526</v>
+        <v>44363</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>3250</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>325</v>
+        <v>806</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44454</v>
+        <v>44412</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>17600</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>806</v>
+        <v>978</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44377</v>
+        <v>44554</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>17600</v>
+        <v>5500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>978</v>
+        <v>550</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44554</v>
+        <v>44405</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44363</v>
+        <v>44435</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44533</v>
+        <v>44435</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>650</v>
+        <v>806</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q16" t="n">
         <v>10</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44405</v>
+        <v>44533</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,32 +1581,32 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44412</v>
+        <v>44454</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44211</v>
+        <v>44398</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,41 +1716,41 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44435</v>
+        <v>44398</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1800,13 +1800,13 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44435</v>
+        <v>44221</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,41 +1860,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44211</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,41 +492,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>4750</v>
+        <v>17600</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>475</v>
+        <v>978</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44526</v>
+        <v>44363</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>5250</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>525</v>
+        <v>806</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44526</v>
+        <v>44391</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,29 +792,29 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>4250</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>425</v>
+        <v>861</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44363</v>
+        <v>44398</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44391</v>
+        <v>44526</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="M10" t="n">
-        <v>15500</v>
+        <v>5250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>861</v>
+        <v>525</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44377</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M11" t="n">
-        <v>17600</v>
+        <v>4250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>978</v>
+        <v>425</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44554</v>
+        <v>44526</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M12" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>550</v>
+        <v>325</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44405</v>
+        <v>44554</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>44405</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
         <v>17000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44435</v>
+        <v>44221</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44454</v>
+        <v>44433</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44398</v>
+        <v>44211</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L20" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M20" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>861</v>
+        <v>475</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44221</v>
+        <v>44454</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L21" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>550</v>
+        <v>1083</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,7 +497,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -510,7 +510,7 @@
         <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44391</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44363</v>
+        <v>44433</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44391</v>
+        <v>44433</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L6" t="n">
         <v>15000</v>
       </c>
-      <c r="L6" t="n">
-        <v>16000</v>
-      </c>
       <c r="M6" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44398</v>
+        <v>44211</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44398</v>
+        <v>44526</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="M8" t="n">
-        <v>15500</v>
+        <v>5250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>861</v>
+        <v>525</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44412</v>
+        <v>44526</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,41 +996,41 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L10" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M10" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>525</v>
+        <v>325</v>
       </c>
       <c r="Q10" t="n">
         <v>10</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="M12" t="n">
-        <v>3250</v>
+        <v>15500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>325</v>
+        <v>861</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44554</v>
+        <v>44221</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
         <v>5000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44405</v>
+        <v>44554</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44221</v>
+        <v>44454</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,32 +1437,32 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>550</v>
+        <v>1083</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44533</v>
+        <v>44405</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44533</v>
+        <v>44412</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K17" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44433</v>
+        <v>44363</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44433</v>
+        <v>44533</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,41 +1716,41 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>806</v>
+        <v>650</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44211</v>
+        <v>44533</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L20" t="n">
         <v>5000</v>
       </c>
       <c r="M20" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="Q20" t="n">
         <v>10</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44454</v>
+        <v>44377</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>19500</v>
+        <v>17600</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1083</v>
+        <v>978</v>
       </c>
       <c r="Q21" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44391</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,41 +564,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>806</v>
+        <v>650</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44391</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L4" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>15500</v>
+        <v>4500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>861</v>
+        <v>450</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44433</v>
+        <v>44405</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
         <v>17000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44433</v>
+        <v>44211</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>4750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>806</v>
+        <v>475</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44211</v>
+        <v>44412</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44526</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44526</v>
+        <v>44435</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,41 +996,41 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>4250</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>425</v>
+        <v>806</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44526</v>
+        <v>44433</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44221</v>
+        <v>44398</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>550</v>
+        <v>861</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44554</v>
+        <v>44221</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
         <v>5000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44405</v>
+        <v>44554</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44412</v>
+        <v>44526</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,32 +1581,32 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44363</v>
+        <v>44526</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>4250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>806</v>
+        <v>425</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>650</v>
+        <v>325</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44533</v>
+        <v>44363</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>4500</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>450</v>
+        <v>806</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44398</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,41 +564,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>650</v>
+        <v>861</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44412</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,41 +636,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K4" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44405</v>
+        <v>44363</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
         <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44211</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>4750</v>
+        <v>17600</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>475</v>
+        <v>978</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44412</v>
+        <v>44433</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
         <v>17000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44435</v>
+        <v>44405</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44433</v>
+        <v>44554</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44433</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>806</v>
+        <v>650</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44398</v>
+        <v>44533</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44398</v>
+        <v>44391</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44221</v>
+        <v>44211</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
         <v>140</v>
       </c>
       <c r="K14" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L14" t="n">
         <v>5000</v>
       </c>
-      <c r="L14" t="n">
-        <v>6000</v>
-      </c>
       <c r="M14" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q14" t="n">
         <v>10</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44454</v>
+        <v>44435</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44554</v>
+        <v>44435</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44526</v>
+        <v>44454</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,32 +1581,32 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L17" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>5250</v>
+        <v>19500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>525</v>
+        <v>1083</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M18" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="Q18" t="n">
         <v>10</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L19" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M19" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44363</v>
+        <v>44526</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>3250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>806</v>
+        <v>325</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44377</v>
+        <v>44221</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M21" t="n">
-        <v>17600</v>
+        <v>5500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>978</v>
+        <v>550</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44398</v>
+        <v>44454</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44363</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,29 +720,29 @@
         <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44554</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>17600</v>
+        <v>5500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>978</v>
+        <v>550</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44433</v>
+        <v>44363</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,11 +929,11 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
         <v>14000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44405</v>
+        <v>44211</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1008,29 +1008,29 @@
         <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44554</v>
+        <v>44377</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,32 +1077,32 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>5500</v>
+        <v>17600</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>550</v>
+        <v>978</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M11" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="Q11" t="n">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
         <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M12" t="n">
-        <v>4500</v>
+        <v>4250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44391</v>
+        <v>44526</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="M13" t="n">
-        <v>15500</v>
+        <v>3250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>861</v>
+        <v>325</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44211</v>
+        <v>44435</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44435</v>
+        <v>44398</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44454</v>
+        <v>44398</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M17" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1656,13 +1656,13 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>525</v>
+        <v>650</v>
       </c>
       <c r="Q18" t="n">
         <v>10</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,17 +1725,17 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
         <v>4000</v>
       </c>
       <c r="L19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M19" t="n">
         <v>4500</v>
       </c>
-      <c r="M19" t="n">
-        <v>4250</v>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44526</v>
+        <v>44433</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,41 +1860,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44412</v>
+        <v>44742</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44412</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44554</v>
+        <v>44221</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
         <v>5000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44391</v>
+        <v>44554</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>861</v>
+        <v>550</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44363</v>
+        <v>44391</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44211</v>
+        <v>44363</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,41 +996,41 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>4750</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>475</v>
+        <v>806</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44377</v>
+        <v>44211</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M10" t="n">
-        <v>17600</v>
+        <v>4750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>978</v>
+        <v>475</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44377</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1152,29 +1152,29 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>5250</v>
+        <v>17600</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>525</v>
+        <v>978</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M12" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L13" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M13" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="Q13" t="n">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>44526</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>3250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>325</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44533</v>
+        <v>44398</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>650</v>
+        <v>861</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44433</v>
+        <v>44533</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,12 +1891,84 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q21" t="n">
         <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>120</v>
+      </c>
+      <c r="K22" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>806</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>18</v>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44533</v>
+        <v>44748</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q20" t="n">
         <v>10</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44433</v>
+        <v>44533</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,12 +1963,84 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>120</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>806</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>18</v>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44454</v>
+        <v>44433</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44405</v>
+        <v>44433</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>17000</v>
@@ -726,7 +726,7 @@
         <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44221</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q6" t="n">
         <v>10</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44554</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L7" t="n">
         <v>5000</v>
       </c>
-      <c r="L7" t="n">
-        <v>6000</v>
-      </c>
       <c r="M7" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q7" t="n">
         <v>10</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44391</v>
+        <v>44554</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>861</v>
+        <v>550</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44363</v>
+        <v>44391</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44211</v>
+        <v>44412</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44377</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1152,29 +1152,29 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M11" t="n">
-        <v>17600</v>
+        <v>5250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>978</v>
+        <v>525</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M12" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L13" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M13" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="Q13" t="n">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44363</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>3250</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>325</v>
+        <v>806</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44398</v>
+        <v>44211</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K18" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44748</v>
+        <v>44398</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
         <v>17000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44533</v>
+        <v>44398</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>650</v>
+        <v>861</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44533</v>
+        <v>44748</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,41 +1860,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K21" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44433</v>
+        <v>44221</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,41 +1932,41 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44433</v>
+        <v>44454</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44211</v>
+        <v>44755</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44405</v>
+        <v>44211</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1656,29 +1656,29 @@
         <v>140</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
         <v>17000</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44748</v>
+        <v>44398</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q21" t="n">
         <v>18</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44221</v>
+        <v>44748</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K22" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,58 +1989,130 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>140</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>44454</v>
       </c>
-      <c r="E23" t="n">
-        <v>15</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="E24" t="n">
+        <v>15</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Cultivar IV Región</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="J24" t="n">
         <v>160</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K24" t="n">
         <v>19000</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>20000</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M24" t="n">
         <v>19500</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P23" t="n">
+      <c r="P24" t="n">
         <v>1083</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q24" t="n">
         <v>18</v>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44757</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K6" t="n">
         <v>6000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M6" t="n">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q6" t="n">
         <v>10</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q7" t="n">
         <v>10</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44554</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L8" t="n">
         <v>5000</v>
       </c>
-      <c r="L8" t="n">
-        <v>6000</v>
-      </c>
       <c r="M8" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q8" t="n">
         <v>10</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44391</v>
+        <v>44554</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,41 +996,41 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>861</v>
+        <v>550</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44412</v>
+        <v>44391</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44412</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M12" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L13" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M13" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="Q13" t="n">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44363</v>
+        <v>44526</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>3250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>806</v>
+        <v>325</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44435</v>
+        <v>44363</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44755</v>
+        <v>44435</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44211</v>
+        <v>44755</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44405</v>
+        <v>44211</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1728,29 +1728,29 @@
         <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
         <v>17000</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q21" t="n">
         <v>18</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44748</v>
+        <v>44398</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44221</v>
+        <v>44748</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K23" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,58 +2061,130 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>140</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>10</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>44454</v>
       </c>
-      <c r="E24" t="n">
-        <v>15</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="E25" t="n">
+        <v>15</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Cultivar IV Región</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="J25" t="n">
         <v>160</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K25" t="n">
         <v>19000</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>20000</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M25" t="n">
         <v>19500</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>1083</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q25" t="n">
         <v>18</v>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44433</v>
+        <v>44363</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44742</v>
+        <v>44398</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
         <v>15000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44526</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,29 +720,29 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M5" t="n">
-        <v>17600</v>
+        <v>5250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>978</v>
+        <v>525</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44757</v>
+        <v>44526</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L6" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M6" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="Q6" t="n">
         <v>10</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M7" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>650</v>
+        <v>325</v>
       </c>
       <c r="Q7" t="n">
         <v>10</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44405</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44554</v>
+        <v>44211</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L9" t="n">
         <v>5000</v>
       </c>
-      <c r="L9" t="n">
-        <v>6000</v>
-      </c>
       <c r="M9" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q9" t="n">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44391</v>
+        <v>44433</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44412</v>
+        <v>44433</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44526</v>
+        <v>44742</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M12" t="n">
-        <v>5250</v>
+        <v>15500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>525</v>
+        <v>861</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44526</v>
+        <v>44755</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44221</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L14" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>3250</v>
+        <v>5500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>325</v>
+        <v>550</v>
       </c>
       <c r="Q14" t="n">
         <v>10</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44363</v>
+        <v>44435</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44435</v>
+        <v>44454</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44755</v>
+        <v>44533</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44211</v>
+        <v>44533</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L19" t="n">
         <v>5000</v>
       </c>
       <c r="M19" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44405</v>
+        <v>44554</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44398</v>
+        <v>44748</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K21" t="n">
         <v>17000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44398</v>
+        <v>44412</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K22" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44748</v>
+        <v>44377</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
         <v>17000</v>
@@ -2022,7 +2022,7 @@
         <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44221</v>
+        <v>44757</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K24" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M24" t="n">
-        <v>5500</v>
+        <v>6250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q24" t="n">
         <v>10</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44454</v>
+        <v>44391</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M25" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44454</v>
+        <v>44762</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M17" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44533</v>
+        <v>44454</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>19500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>650</v>
+        <v>1083</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44554</v>
+        <v>44533</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L20" t="n">
         <v>5000</v>
       </c>
-      <c r="L20" t="n">
-        <v>6000</v>
-      </c>
       <c r="M20" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q20" t="n">
         <v>10</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44748</v>
+        <v>44554</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44412</v>
+        <v>44748</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K22" t="n">
         <v>17000</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44377</v>
+        <v>44412</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K23" t="n">
         <v>17000</v>
@@ -2022,7 +2022,7 @@
         <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44757</v>
+        <v>44377</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>6250</v>
+        <v>17600</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>625</v>
+        <v>978</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,58 +2133,130 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>150</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>10</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>44391</v>
       </c>
-      <c r="E25" t="n">
-        <v>15</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Cultivar IV Región</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="J26" t="n">
         <v>100</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K26" t="n">
         <v>15000</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>16000</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M26" t="n">
         <v>15500</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P25" t="n">
+      <c r="P26" t="n">
         <v>861</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q26" t="n">
         <v>18</v>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44377</v>
+        <v>44769</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
         <v>17000</v>
@@ -2094,7 +2094,7 @@
         <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44757</v>
+        <v>44377</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>6250</v>
+        <v>17600</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>625</v>
+        <v>978</v>
       </c>
       <c r="Q25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,58 +2205,130 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>150</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M26" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>10</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
         <v>44391</v>
       </c>
-      <c r="E26" t="n">
-        <v>15</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="E27" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Cultivar IV Región</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J26" t="n">
+      <c r="J27" t="n">
         <v>100</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K27" t="n">
         <v>15000</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>16000</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M27" t="n">
         <v>15500</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P26" t="n">
+      <c r="P27" t="n">
         <v>861</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q27" t="n">
         <v>18</v>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44221</v>
+        <v>44771</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1368,13 +1368,13 @@
         <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="Q14" t="n">
         <v>10</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44435</v>
+        <v>44221</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44762</v>
+        <v>44435</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L17" t="n">
         <v>15000</v>
       </c>
-      <c r="L17" t="n">
-        <v>16000</v>
-      </c>
       <c r="M17" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44454</v>
+        <v>44762</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1656,13 +1656,13 @@
         <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M18" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44533</v>
+        <v>44454</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>19500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>650</v>
+        <v>1083</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q20" t="n">
         <v>10</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44554</v>
+        <v>44533</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L21" t="n">
         <v>5000</v>
       </c>
-      <c r="L21" t="n">
-        <v>6000</v>
-      </c>
       <c r="M21" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q21" t="n">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44748</v>
+        <v>44554</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44412</v>
+        <v>44748</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K23" t="n">
         <v>17000</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44769</v>
+        <v>44412</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K24" t="n">
         <v>17000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44377</v>
+        <v>44769</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K25" t="n">
         <v>17000</v>
@@ -2166,7 +2166,7 @@
         <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44757</v>
+        <v>44377</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>6250</v>
+        <v>17600</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>625</v>
+        <v>978</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,58 +2277,130 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="E27" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>150</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>10</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
         <v>44391</v>
       </c>
-      <c r="E27" t="n">
-        <v>15</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="E28" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Cultivar IV Región</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="J28" t="n">
         <v>100</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K28" t="n">
         <v>15000</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>16000</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M28" t="n">
         <v>15500</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P27" t="n">
+      <c r="P28" t="n">
         <v>861</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q28" t="n">
         <v>18</v>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44769</v>
+        <v>44776</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
         <v>17000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44377</v>
+        <v>44769</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
         <v>17000</v>
@@ -2238,7 +2238,7 @@
         <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44757</v>
+        <v>44377</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,32 +2301,32 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>6250</v>
+        <v>17600</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>625</v>
+        <v>978</v>
       </c>
       <c r="Q27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,58 +2349,130 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="E28" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>150</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>10</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
         <v>44391</v>
       </c>
-      <c r="E28" t="n">
-        <v>15</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Cultivar IV Región</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J28" t="n">
+      <c r="J29" t="n">
         <v>100</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K29" t="n">
         <v>15000</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>16000</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M29" t="n">
         <v>15500</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P28" t="n">
+      <c r="P29" t="n">
         <v>861</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q29" t="n">
         <v>18</v>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44377</v>
+        <v>44783</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K27" t="n">
         <v>17000</v>
@@ -2310,7 +2310,7 @@
         <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44757</v>
+        <v>44377</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,32 +2373,32 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>6250</v>
+        <v>17600</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>625</v>
+        <v>978</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,58 +2421,130 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>150</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M29" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>10</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
         <v>44391</v>
       </c>
-      <c r="E29" t="n">
-        <v>15</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="E30" t="n">
+        <v>15</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Cultivar IV Región</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J29" t="n">
+      <c r="J30" t="n">
         <v>100</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K30" t="n">
         <v>15000</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>16000</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M30" t="n">
         <v>15500</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P29" t="n">
+      <c r="P30" t="n">
         <v>861</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q30" t="n">
         <v>18</v>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44363</v>
+        <v>44211</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,41 +492,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
         <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>4750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>806</v>
+        <v>475</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,7 +569,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L4" t="n">
         <v>15000</v>
       </c>
-      <c r="L4" t="n">
-        <v>16000</v>
-      </c>
       <c r="M4" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,29 +720,29 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,29 +792,29 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>4250</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>425</v>
+        <v>861</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44412</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44405</v>
+        <v>44742</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44211</v>
+        <v>44762</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,41 +996,41 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>4750</v>
+        <v>15500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>475</v>
+        <v>861</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44433</v>
+        <v>44526</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44433</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>4250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>806</v>
+        <v>425</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44742</v>
+        <v>44526</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="M12" t="n">
-        <v>15500</v>
+        <v>3250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>861</v>
+        <v>325</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44755</v>
+        <v>44769</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
         <v>17000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44771</v>
+        <v>44748</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>850</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44221</v>
+        <v>44783</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,32 +1437,32 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44435</v>
+        <v>44755</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,11 +1505,11 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
         <v>17000</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44435</v>
+        <v>44554</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44762</v>
+        <v>44377</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>15500</v>
+        <v>17600</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>861</v>
+        <v>978</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44454</v>
+        <v>44757</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K19" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="M19" t="n">
-        <v>19500</v>
+        <v>6250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1083</v>
+        <v>625</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44533</v>
+        <v>44363</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>650</v>
+        <v>806</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44533</v>
+        <v>44776</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,41 +1860,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44554</v>
+        <v>44391</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,41 +1932,41 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L22" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M22" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>550</v>
+        <v>861</v>
       </c>
       <c r="Q22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44748</v>
+        <v>44533</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44412</v>
+        <v>44533</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,41 +2076,41 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44776</v>
+        <v>44454</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44769</v>
+        <v>44405</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44783</v>
+        <v>44771</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,32 +2301,32 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>972</v>
+        <v>850</v>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44377</v>
+        <v>44221</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,32 +2373,32 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M28" t="n">
-        <v>17600</v>
+        <v>5500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>978</v>
+        <v>550</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44757</v>
+        <v>44435</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,41 +2436,41 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K30" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L30" t="n">
         <v>15000</v>
       </c>
-      <c r="L30" t="n">
-        <v>16000</v>
-      </c>
       <c r="M30" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44211</v>
+        <v>44412</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,41 +492,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44433</v>
+        <v>44363</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44433</v>
+        <v>44762</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44398</v>
+        <v>44769</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
         <v>17000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44398</v>
+        <v>44211</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>861</v>
+        <v>475</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44412</v>
+        <v>44398</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
         <v>17000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44742</v>
+        <v>44398</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
         <v>15000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44762</v>
+        <v>44783</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44526</v>
+        <v>44221</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,17 +1077,17 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
         <v>5000</v>
       </c>
       <c r="L10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M10" t="n">
         <v>5500</v>
       </c>
-      <c r="M10" t="n">
-        <v>5250</v>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q10" t="n">
         <v>10</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44757</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M11" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="Q11" t="n">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44526</v>
+        <v>44377</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>3250</v>
+        <v>17600</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>325</v>
+        <v>978</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44769</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44748</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44783</v>
+        <v>44554</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,32 +1437,32 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44755</v>
+        <v>44771</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,32 +1509,32 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>850</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44554</v>
+        <v>44776</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,29 +1584,29 @@
         <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1662,7 +1662,7 @@
         <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44757</v>
+        <v>44435</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,41 +1716,41 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>6250</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>625</v>
+        <v>806</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44363</v>
+        <v>44755</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44776</v>
+        <v>44405</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
         <v>17000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44391</v>
+        <v>44526</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,41 +1932,41 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L22" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="M22" t="n">
-        <v>15500</v>
+        <v>5250</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>861</v>
+        <v>525</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M23" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>650</v>
+        <v>425</v>
       </c>
       <c r="Q23" t="n">
         <v>10</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J24" t="n">
         <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L24" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M24" t="n">
-        <v>4500</v>
+        <v>3250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>450</v>
+        <v>325</v>
       </c>
       <c r="Q24" t="n">
         <v>10</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44454</v>
+        <v>44748</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K25" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44405</v>
+        <v>44391</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44771</v>
+        <v>44742</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,41 +2292,41 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K27" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L27" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>15500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="Q27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,41 +2364,41 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44435</v>
+        <v>44454</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44412</v>
+        <v>44757</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -504,29 +504,29 @@
         <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44363</v>
+        <v>44742</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44762</v>
+        <v>44776</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44769</v>
+        <v>44755</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
         <v>17000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44211</v>
+        <v>44405</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,29 +792,29 @@
         <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44398</v>
+        <v>44211</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44398</v>
+        <v>44762</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,11 +929,11 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
         <v>15000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44783</v>
+        <v>44391</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44221</v>
+        <v>44363</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,29 +1080,29 @@
         <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44757</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,17 +1149,17 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
         <v>6000</v>
       </c>
       <c r="L11" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M11" t="n">
         <v>6500</v>
       </c>
-      <c r="M11" t="n">
-        <v>6250</v>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q11" t="n">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44377</v>
+        <v>44533</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M12" t="n">
-        <v>17600</v>
+        <v>4500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>978</v>
+        <v>450</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44435</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
         <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>4500</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>450</v>
+        <v>806</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44554</v>
+        <v>44412</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,32 +1437,32 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44771</v>
+        <v>44748</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,32 +1509,32 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>850</v>
+        <v>972</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44776</v>
+        <v>44771</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,32 +1581,32 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>972</v>
+        <v>850</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44435</v>
+        <v>44783</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
         <v>17000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44435</v>
+        <v>44454</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44755</v>
+        <v>44526</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44405</v>
+        <v>44526</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L22" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M22" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>525</v>
+        <v>325</v>
       </c>
       <c r="Q22" t="n">
         <v>10</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44526</v>
+        <v>44377</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,41 +2004,41 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>4250</v>
+        <v>17600</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>425</v>
+        <v>978</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44526</v>
+        <v>44769</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,41 +2076,41 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44748</v>
+        <v>44221</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44742</v>
+        <v>44398</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
         <v>15000</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44454</v>
+        <v>44554</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,32 +2517,32 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K30" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="L30" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M30" t="n">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1083</v>
+        <v>550</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44757</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,41 +492,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44742</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L3" t="n">
         <v>15000</v>
       </c>
-      <c r="L3" t="n">
-        <v>16000</v>
-      </c>
       <c r="M3" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44776</v>
+        <v>44526</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44755</v>
+        <v>44526</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,41 +708,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44405</v>
+        <v>44526</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>3250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>972</v>
+        <v>325</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44211</v>
+        <v>44433</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44762</v>
+        <v>44433</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L8" t="n">
         <v>15000</v>
       </c>
-      <c r="L8" t="n">
-        <v>16000</v>
-      </c>
       <c r="M8" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44391</v>
+        <v>44748</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44783</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44533</v>
+        <v>44405</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44757</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>44377</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>17600</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>806</v>
+        <v>978</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44412</v>
+        <v>44769</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K15" t="n">
         <v>17000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44748</v>
+        <v>44363</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44771</v>
+        <v>44221</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>140</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="Q17" t="n">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44783</v>
+        <v>44554</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44454</v>
+        <v>44391</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M19" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44526</v>
+        <v>44776</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44526</v>
+        <v>44412</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,41 +1860,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,41 +1932,41 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44377</v>
+        <v>44398</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="n">
-        <v>17600</v>
+        <v>15500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>978</v>
+        <v>861</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44769</v>
+        <v>44755</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
         <v>17000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44221</v>
+        <v>44742</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,41 +2148,41 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K25" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L25" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M25" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>550</v>
+        <v>861</v>
       </c>
       <c r="Q25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44398</v>
+        <v>44771</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>972</v>
+        <v>850</v>
       </c>
       <c r="Q26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44398</v>
+        <v>44762</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2297,11 +2297,11 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
         <v>15000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44433</v>
+        <v>44211</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,32 +2373,32 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44433</v>
+        <v>44533</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,41 +2436,41 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>806</v>
+        <v>650</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44554</v>
+        <v>44533</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K30" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L30" t="n">
         <v>5000</v>
       </c>
-      <c r="L30" t="n">
-        <v>6000</v>
-      </c>
       <c r="M30" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q30" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44391</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44762</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44526</v>
+        <v>44769</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44526</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>425</v>
+        <v>550</v>
       </c>
       <c r="Q5" t="n">
         <v>10</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44526</v>
+        <v>44776</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44433</v>
+        <v>44412</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
         <v>17000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44433</v>
+        <v>44755</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44748</v>
+        <v>44398</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
         <v>17000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44454</v>
+        <v>44398</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44405</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
         <v>17000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44757</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>6250</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>625</v>
+        <v>806</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44377</v>
+        <v>44211</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M14" t="n">
-        <v>17600</v>
+        <v>4750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>978</v>
+        <v>475</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44769</v>
+        <v>44554</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,32 +1437,32 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44363</v>
+        <v>44526</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,32 +1509,32 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>5250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>806</v>
+        <v>525</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44221</v>
+        <v>44526</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L17" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M17" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="Q17" t="n">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44554</v>
+        <v>44526</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L18" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M18" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>550</v>
+        <v>325</v>
       </c>
       <c r="Q18" t="n">
         <v>10</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44391</v>
+        <v>44533</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,41 +1716,41 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>15500</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>861</v>
+        <v>650</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44776</v>
+        <v>44533</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44412</v>
+        <v>44757</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,29 +1872,29 @@
         <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44398</v>
+        <v>44363</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44398</v>
+        <v>44454</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K23" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L23" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44755</v>
+        <v>44742</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44742</v>
+        <v>44748</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
         <v>250</v>
       </c>
       <c r="K25" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44762</v>
+        <v>44377</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>15500</v>
+        <v>17600</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>861</v>
+        <v>978</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44211</v>
+        <v>44405</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2376,29 +2376,29 @@
         <v>140</v>
       </c>
       <c r="K28" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44533</v>
+        <v>44433</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,41 +2436,41 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44533</v>
+        <v>44433</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2508,41 +2508,41 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J30" t="n">
         <v>120</v>
       </c>
       <c r="K30" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>4500</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>450</v>
+        <v>806</v>
       </c>
       <c r="Q30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44762</v>
+        <v>44742</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,11 +569,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
         <v>15000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44769</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
@@ -654,7 +654,7 @@
         <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44748</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44776</v>
+        <v>44755</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
         <v>17000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44412</v>
+        <v>44398</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
         <v>17000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44755</v>
+        <v>44398</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L10" t="n">
         <v>15000</v>
       </c>
-      <c r="L10" t="n">
-        <v>16000</v>
-      </c>
       <c r="M10" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44783</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
         <v>17000</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44405</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44211</v>
+        <v>44771</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
         <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="Q14" t="n">
         <v>10</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44554</v>
+        <v>44526</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
         <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q15" t="n">
         <v>10</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L16" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M16" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="Q16" t="n">
         <v>10</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M17" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="Q17" t="n">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44526</v>
+        <v>44454</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>3000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>3250</v>
+        <v>19500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>325</v>
+        <v>1083</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44533</v>
+        <v>44554</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L19" t="n">
         <v>6000</v>
       </c>
-      <c r="L19" t="n">
-        <v>7000</v>
-      </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44533</v>
+        <v>44769</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44757</v>
+        <v>44783</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,29 +1872,29 @@
         <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44363</v>
+        <v>44221</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1944,29 +1944,29 @@
         <v>140</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44454</v>
+        <v>44363</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44742</v>
+        <v>44211</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L24" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M24" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>861</v>
+        <v>475</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44748</v>
+        <v>44776</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
         <v>17000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44771</v>
+        <v>44533</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q26" t="n">
         <v>10</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44377</v>
+        <v>44533</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,41 +2292,41 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M27" t="n">
-        <v>17600</v>
+        <v>4500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>978</v>
+        <v>450</v>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44405</v>
+        <v>44762</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44433</v>
+        <v>44757</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,41 +2436,41 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44433</v>
+        <v>44412</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44742</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L3" t="n">
         <v>15000</v>
       </c>
-      <c r="L3" t="n">
-        <v>16000</v>
-      </c>
       <c r="M3" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44412</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
@@ -654,7 +654,7 @@
         <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44748</v>
+        <v>44776</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
         <v>17000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44755</v>
+        <v>44363</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44433</v>
+        <v>44533</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>806</v>
+        <v>650</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44435</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44757</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>6250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>806</v>
+        <v>625</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44405</v>
+        <v>44748</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,11 +1289,11 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K13" t="n">
         <v>17000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44526</v>
+        <v>44433</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44526</v>
+        <v>44433</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>4250</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>425</v>
+        <v>806</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44526</v>
+        <v>44211</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K17" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L17" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M17" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="Q17" t="n">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44454</v>
+        <v>44762</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1656,13 +1656,13 @@
         <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M18" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44554</v>
+        <v>44526</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
         <v>5000</v>
       </c>
       <c r="L19" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M19" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44769</v>
+        <v>44526</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44783</v>
+        <v>44526</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,41 +1860,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>3250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>972</v>
+        <v>325</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44221</v>
+        <v>44377</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>5500</v>
+        <v>17600</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>550</v>
+        <v>978</v>
       </c>
       <c r="Q22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44363</v>
+        <v>44554</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44211</v>
+        <v>44742</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K24" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L24" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M24" t="n">
-        <v>4750</v>
+        <v>15500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>475</v>
+        <v>861</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44776</v>
+        <v>44454</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44533</v>
+        <v>44221</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L26" t="n">
         <v>6000</v>
       </c>
-      <c r="L26" t="n">
-        <v>7000</v>
-      </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q26" t="n">
         <v>10</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44533</v>
+        <v>44769</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,41 +2292,41 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K27" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44762</v>
+        <v>44755</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2376,13 +2376,13 @@
         <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44757</v>
+        <v>44405</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,41 +2436,41 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44412</v>
+        <v>44783</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44391</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44742</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
@@ -654,7 +654,7 @@
         <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44776</v>
+        <v>44748</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
         <v>17000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44363</v>
+        <v>44755</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44391</v>
+        <v>44433</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44533</v>
+        <v>44433</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>650</v>
+        <v>806</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44757</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>6250</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>625</v>
+        <v>806</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44748</v>
+        <v>44405</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,11 +1289,11 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
         <v>17000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44433</v>
+        <v>44526</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44433</v>
+        <v>44526</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>4250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>806</v>
+        <v>425</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44211</v>
+        <v>44526</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M17" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>475</v>
+        <v>325</v>
       </c>
       <c r="Q17" t="n">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44762</v>
+        <v>44454</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1656,13 +1656,13 @@
         <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44526</v>
+        <v>44554</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,17 +1725,17 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
         <v>5000</v>
       </c>
       <c r="L19" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M19" t="n">
         <v>5500</v>
       </c>
-      <c r="M19" t="n">
-        <v>5250</v>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44526</v>
+        <v>44769</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44526</v>
+        <v>44783</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,41 +1860,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44377</v>
+        <v>44221</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M22" t="n">
-        <v>17600</v>
+        <v>5500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>978</v>
+        <v>550</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44554</v>
+        <v>44363</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44742</v>
+        <v>44211</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L24" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M24" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>861</v>
+        <v>475</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44454</v>
+        <v>44776</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44221</v>
+        <v>44533</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q26" t="n">
         <v>10</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44769</v>
+        <v>44533</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,41 +2292,41 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44755</v>
+        <v>44762</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2376,13 +2376,13 @@
         <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44405</v>
+        <v>44757</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,41 +2436,41 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44783</v>
+        <v>44412</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44554</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,41 +492,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44405</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44412</v>
+        <v>44769</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44776</v>
+        <v>44783</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
         <v>17000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44363</v>
+        <v>44771</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,29 +792,29 @@
         <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>806</v>
+        <v>850</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44398</v>
+        <v>44363</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44398</v>
+        <v>44391</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44391</v>
+        <v>44454</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44533</v>
+        <v>44435</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>4500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>450</v>
+        <v>806</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44757</v>
+        <v>44742</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="M12" t="n">
-        <v>6250</v>
+        <v>15500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>625</v>
+        <v>861</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44748</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44771</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="Q14" t="n">
         <v>10</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44433</v>
+        <v>44748</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,11 +1433,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K15" t="n">
         <v>17000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44433</v>
+        <v>44221</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44211</v>
+        <v>44762</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L17" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M17" t="n">
-        <v>4750</v>
+        <v>15500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>475</v>
+        <v>861</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44762</v>
+        <v>44412</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44526</v>
+        <v>44211</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L19" t="n">
         <v>5000</v>
       </c>
-      <c r="L19" t="n">
-        <v>5500</v>
-      </c>
       <c r="M19" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44526</v>
+        <v>44755</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44526</v>
+        <v>44776</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,41 +1860,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44554</v>
+        <v>44398</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44742</v>
+        <v>44398</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
         <v>15000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44454</v>
+        <v>44433</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,41 +2220,41 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K26" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44769</v>
+        <v>44526</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,32 +2301,32 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44755</v>
+        <v>44526</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,41 +2364,41 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44405</v>
+        <v>44526</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,41 +2436,41 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>3250</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>972</v>
+        <v>325</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44783</v>
+        <v>44757</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2520,29 +2520,29 @@
         <v>150</v>
       </c>
       <c r="K30" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L30" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M30" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44554</v>
+        <v>44363</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44405</v>
+        <v>44398</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,11 +569,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
         <v>17000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44769</v>
+        <v>44398</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44783</v>
+        <v>44433</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,11 +713,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>17000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44771</v>
+        <v>44433</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>850</v>
+        <v>806</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44363</v>
+        <v>44783</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44391</v>
+        <v>44742</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K8" t="n">
         <v>15000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44454</v>
+        <v>44391</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44742</v>
+        <v>44377</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>15500</v>
+        <v>17600</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>861</v>
+        <v>978</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44748</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44412</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44748</v>
+        <v>44405</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,11 +1433,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K15" t="n">
         <v>17000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44221</v>
+        <v>44554</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
         <v>5000</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44762</v>
+        <v>44533</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,32 +1581,32 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L17" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>15500</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>861</v>
+        <v>650</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44412</v>
+        <v>44533</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44211</v>
+        <v>44221</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M19" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44755</v>
+        <v>44454</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1800,13 +1800,13 @@
         <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44776</v>
+        <v>44771</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>972</v>
+        <v>850</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44377</v>
+        <v>44211</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,41 +1932,41 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M22" t="n">
-        <v>17600</v>
+        <v>4750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>978</v>
+        <v>475</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44398</v>
+        <v>44757</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44398</v>
+        <v>44755</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44433</v>
+        <v>44776</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2153,11 +2153,11 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
         <v>17000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44433</v>
+        <v>44769</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44757</v>
+        <v>44762</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,32 +2517,32 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L30" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="M30" t="n">
-        <v>6250</v>
+        <v>15500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>625</v>
+        <v>861</v>
       </c>
       <c r="Q30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44363</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44398</v>
+        <v>44211</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L4" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>861</v>
+        <v>475</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44433</v>
+        <v>44533</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,41 +708,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44433</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>4500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>806</v>
+        <v>450</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44783</v>
+        <v>44391</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44742</v>
+        <v>44363</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L8" t="n">
         <v>15000</v>
       </c>
-      <c r="L8" t="n">
-        <v>16000</v>
-      </c>
       <c r="M8" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44391</v>
+        <v>44412</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44435</v>
+        <v>44757</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44435</v>
+        <v>44454</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44377</v>
+        <v>44526</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,29 +1224,29 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M12" t="n">
-        <v>17600</v>
+        <v>5250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>978</v>
+        <v>525</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44748</v>
+        <v>44526</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44412</v>
+        <v>44526</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>3250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>325</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44405</v>
+        <v>44377</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,11 +1433,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
         <v>17000</v>
@@ -1446,7 +1446,7 @@
         <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44554</v>
+        <v>44783</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,32 +1509,32 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K16" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44533</v>
+        <v>44433</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44533</v>
+        <v>44433</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>4500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>450</v>
+        <v>806</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44221</v>
+        <v>44748</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44454</v>
+        <v>44762</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1800,13 +1800,13 @@
         <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M20" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44771</v>
+        <v>44755</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>850</v>
+        <v>972</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44211</v>
+        <v>44405</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1944,29 +1944,29 @@
         <v>140</v>
       </c>
       <c r="K22" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44757</v>
+        <v>44769</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44755</v>
+        <v>44221</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44769</v>
+        <v>44398</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
         <v>17000</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,41 +2292,41 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L27" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M27" t="n">
-        <v>5250</v>
+        <v>15500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>525</v>
+        <v>861</v>
       </c>
       <c r="Q27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44526</v>
+        <v>44742</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,32 +2373,32 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K28" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M28" t="n">
-        <v>4250</v>
+        <v>15500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>425</v>
+        <v>861</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44526</v>
+        <v>44554</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K29" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L29" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M29" t="n">
-        <v>3250</v>
+        <v>5500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>325</v>
+        <v>550</v>
       </c>
       <c r="Q29" t="n">
         <v>10</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44762</v>
+        <v>44771</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,32 +2517,32 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K30" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44776</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,11 +497,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
         <v>17000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44211</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,41 +564,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>4750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>806</v>
+        <v>475</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44211</v>
+        <v>44748</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,41 +636,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44533</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,29 +720,29 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>6500</v>
+        <v>17600</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>650</v>
+        <v>978</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44221</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q6" t="n">
         <v>10</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44391</v>
+        <v>44554</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>861</v>
+        <v>550</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44363</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>806</v>
+        <v>650</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44412</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,41 +996,41 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44454</v>
+        <v>44762</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44377</v>
+        <v>44398</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1446,7 +1446,7 @@
         <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44783</v>
+        <v>44398</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44433</v>
+        <v>44454</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44433</v>
+        <v>44412</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44748</v>
+        <v>44755</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
         <v>17000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44762</v>
+        <v>44742</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K20" t="n">
         <v>15000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44755</v>
+        <v>44405</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
         <v>17000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44405</v>
+        <v>44769</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44769</v>
+        <v>44391</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,41 +2076,41 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44776</v>
+        <v>44433</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44398</v>
+        <v>44363</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2304,13 +2304,13 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44742</v>
+        <v>44435</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K28" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L28" t="n">
         <v>15000</v>
       </c>
-      <c r="L28" t="n">
-        <v>16000</v>
-      </c>
       <c r="M28" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44554</v>
+        <v>44783</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,32 +2445,32 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K29" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44776</v>
+        <v>44405</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,11 +497,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
         <v>17000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44211</v>
+        <v>44554</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L3" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M3" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q3" t="n">
         <v>10</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44748</v>
+        <v>44769</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44755</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
         <v>17000</v>
@@ -726,7 +726,7 @@
         <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44221</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44554</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44757</v>
+        <v>44783</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,29 +1080,29 @@
         <v>150</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44762</v>
+        <v>44221</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>861</v>
+        <v>550</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44526</v>
+        <v>44377</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,29 +1224,29 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>5250</v>
+        <v>17600</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>525</v>
+        <v>978</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44526</v>
+        <v>44762</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>4250</v>
+        <v>15500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>425</v>
+        <v>861</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44433</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44454</v>
+        <v>44398</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M17" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44412</v>
+        <v>44771</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>972</v>
+        <v>850</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44755</v>
+        <v>44412</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K19" t="n">
         <v>17000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44742</v>
+        <v>44211</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L20" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M20" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>861</v>
+        <v>475</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44405</v>
+        <v>44748</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K21" t="n">
         <v>17000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44769</v>
+        <v>44742</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44391</v>
+        <v>44776</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44433</v>
+        <v>44363</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44433</v>
+        <v>44757</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,41 +2148,41 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>6250</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>806</v>
+        <v>625</v>
       </c>
       <c r="Q25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44363</v>
+        <v>44391</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44435</v>
+        <v>44454</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44435</v>
+        <v>44526</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,41 +2364,41 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>5250</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>806</v>
+        <v>525</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44783</v>
+        <v>44526</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,41 +2436,41 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44771</v>
+        <v>44526</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K30" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L30" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M30" t="n">
-        <v>8500</v>
+        <v>3250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>850</v>
+        <v>325</v>
       </c>
       <c r="Q30" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44391</v>
+        <v>45021</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="K26" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44454</v>
+        <v>44391</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L27" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M27" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44526</v>
+        <v>44454</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,32 +2373,32 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L28" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>5250</v>
+        <v>19500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>525</v>
+        <v>1083</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L29" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M29" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="Q29" t="n">
         <v>10</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L30" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M30" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,12 +2539,84 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="Q30" t="n">
         <v>10</v>
       </c>
       <c r="R30" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>120</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>325</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>10</v>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44783</v>
+        <v>45035</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44221</v>
+        <v>44783</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44377</v>
+        <v>44221</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>17600</v>
+        <v>5500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>978</v>
+        <v>550</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44762</v>
+        <v>44377</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>15500</v>
+        <v>17600</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>861</v>
+        <v>978</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44433</v>
+        <v>44762</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44771</v>
+        <v>44398</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M18" t="n">
-        <v>8500</v>
+        <v>15500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44412</v>
+        <v>44771</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>972</v>
+        <v>850</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44211</v>
+        <v>44412</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K20" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44748</v>
+        <v>44211</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,41 +1860,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44742</v>
+        <v>44748</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
         <v>250</v>
       </c>
       <c r="K22" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44776</v>
+        <v>44742</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44363</v>
+        <v>44776</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44757</v>
+        <v>44363</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>6250</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>625</v>
+        <v>806</v>
       </c>
       <c r="Q25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45021</v>
+        <v>44757</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44391</v>
+        <v>45021</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="K27" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44454</v>
+        <v>44391</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M28" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44526</v>
+        <v>44454</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,32 +2445,32 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K29" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L29" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="M29" t="n">
-        <v>5250</v>
+        <v>19500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>525</v>
+        <v>1083</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L30" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M30" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="Q30" t="n">
         <v>10</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L31" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M31" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,12 +2611,84 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="Q31" t="n">
         <v>10</v>
       </c>
       <c r="R31" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>120</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>325</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>10</v>
+      </c>
+      <c r="R32" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44405</v>
+        <v>44748</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,11 +497,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
         <v>17000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44554</v>
+        <v>44433</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,41 +564,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44769</v>
+        <v>44433</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44755</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,11 +713,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>17000</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44405</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44771</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q8" t="n">
         <v>10</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44533</v>
+        <v>44742</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>4500</v>
+        <v>15500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>450</v>
+        <v>861</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45035</v>
+        <v>44755</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44783</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44221</v>
+        <v>44526</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M12" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44377</v>
+        <v>44526</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M13" t="n">
-        <v>17600</v>
+        <v>3250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>978</v>
+        <v>325</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44762</v>
+        <v>45021</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44433</v>
+        <v>44221</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>17600</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>806</v>
+        <v>978</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44398</v>
+        <v>44533</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,29 +1584,29 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44398</v>
+        <v>44533</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L18" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>15500</v>
+        <v>4500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>861</v>
+        <v>450</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44771</v>
+        <v>45042</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,41 +1716,41 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>17545</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>850</v>
+        <v>975</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44412</v>
+        <v>44391</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44211</v>
+        <v>44769</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,41 +1860,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
         <v>140</v>
       </c>
       <c r="K21" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44748</v>
+        <v>44412</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K22" t="n">
         <v>17000</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44742</v>
+        <v>44363</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L23" t="n">
         <v>15000</v>
       </c>
-      <c r="L23" t="n">
-        <v>16000</v>
-      </c>
       <c r="M23" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44776</v>
+        <v>45035</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44363</v>
+        <v>44776</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44757</v>
+        <v>44554</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L26" t="n">
         <v>6000</v>
       </c>
-      <c r="L26" t="n">
-        <v>6500</v>
-      </c>
       <c r="M26" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q26" t="n">
         <v>10</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45021</v>
+        <v>44783</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="K27" t="n">
         <v>17000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44454</v>
+        <v>44398</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L29" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M29" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44526</v>
+        <v>44757</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K30" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L30" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M30" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q30" t="n">
         <v>10</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44526</v>
+        <v>44211</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K31" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L31" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M31" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="Q31" t="n">
         <v>10</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44526</v>
+        <v>44762</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,43 +2652,115 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K32" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="L32" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="M32" t="n">
-        <v>3250</v>
+        <v>15500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>325</v>
+        <v>861</v>
       </c>
       <c r="Q32" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R32" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="E33" t="n">
+        <v>15</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>160</v>
+      </c>
+      <c r="K33" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>1083</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>18</v>
+      </c>
+      <c r="R33" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44433</v>
+        <v>45043</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>19059</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>972</v>
+        <v>1059</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44405</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44771</v>
+        <v>44405</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>850</v>
+        <v>972</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44742</v>
+        <v>44771</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,41 +996,41 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44755</v>
+        <v>44742</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44755</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M12" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L13" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M13" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="Q13" t="n">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45021</v>
+        <v>44526</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>3250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>325</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44221</v>
+        <v>45021</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,32 +1437,32 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44377</v>
+        <v>44221</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,32 +1509,32 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M16" t="n">
-        <v>17600</v>
+        <v>5500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>978</v>
+        <v>550</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44533</v>
+        <v>44377</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,29 +1584,29 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>6500</v>
+        <v>17600</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>650</v>
+        <v>978</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q18" t="n">
         <v>10</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45042</v>
+        <v>44533</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M19" t="n">
-        <v>17545</v>
+        <v>4500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>975</v>
+        <v>450</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44391</v>
+        <v>45042</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K20" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>15500</v>
+        <v>17545</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>861</v>
+        <v>975</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44769</v>
+        <v>44391</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q21" t="n">
         <v>18</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44412</v>
+        <v>44769</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
         <v>17000</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44363</v>
+        <v>44412</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45035</v>
+        <v>44363</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44776</v>
+        <v>45035</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44554</v>
+        <v>44776</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2232,29 +2232,29 @@
         <v>200</v>
       </c>
       <c r="K26" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44783</v>
+        <v>44554</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,32 +2301,32 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44398</v>
+        <v>44783</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K28" t="n">
         <v>17000</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44757</v>
+        <v>44398</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2508,41 +2508,41 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L30" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="M30" t="n">
-        <v>6250</v>
+        <v>15500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>625</v>
+        <v>861</v>
       </c>
       <c r="Q30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44211</v>
+        <v>44757</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K31" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L31" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M31" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q31" t="n">
         <v>10</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44762</v>
+        <v>44211</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,41 +2652,41 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K32" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L32" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M32" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>861</v>
+        <v>475</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44454</v>
+        <v>44762</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2736,13 +2736,13 @@
         <v>160</v>
       </c>
       <c r="K33" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L33" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M33" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,12 +2755,84 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
       </c>
       <c r="R33" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>160</v>
+      </c>
+      <c r="K34" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>1083</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>18</v>
+      </c>
+      <c r="R34" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44748</v>
+        <v>44221</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45043</v>
+        <v>44405</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L3" t="n">
         <v>18000</v>
       </c>
-      <c r="L3" t="n">
-        <v>20000</v>
-      </c>
       <c r="M3" t="n">
-        <v>19059</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1059</v>
+        <v>972</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44433</v>
+        <v>44748</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,11 +641,11 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44433</v>
+        <v>44454</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44435</v>
+        <v>44526</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M7" t="n">
-        <v>14500</v>
+        <v>4250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>806</v>
+        <v>425</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44405</v>
+        <v>44526</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>3250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>972</v>
+        <v>325</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44771</v>
+        <v>44554</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="Q9" t="n">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44742</v>
+        <v>44435</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44755</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44526</v>
+        <v>44771</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>525</v>
+        <v>850</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44526</v>
+        <v>44391</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1296,29 +1296,29 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>4250</v>
+        <v>15500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>425</v>
+        <v>861</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>3250</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>325</v>
+        <v>650</v>
       </c>
       <c r="Q14" t="n">
         <v>10</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45021</v>
+        <v>44533</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44221</v>
+        <v>44769</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,29 +1512,29 @@
         <v>140</v>
       </c>
       <c r="K16" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44377</v>
+        <v>44755</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
         <v>17000</v>
@@ -1590,7 +1590,7 @@
         <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44533</v>
+        <v>44433</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44533</v>
+        <v>44433</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,41 +1716,41 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>4500</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>450</v>
+        <v>806</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45042</v>
+        <v>45021</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="K20" t="n">
         <v>17000</v>
@@ -1806,7 +1806,7 @@
         <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>17545</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44391</v>
+        <v>45035</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K21" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L21" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q21" t="n">
         <v>18</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44769</v>
+        <v>44412</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K22" t="n">
         <v>17000</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44412</v>
+        <v>44211</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,41 +2004,41 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44363</v>
+        <v>44783</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45035</v>
+        <v>44377</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>19500</v>
+        <v>17600</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1083</v>
+        <v>978</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44776</v>
+        <v>44363</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44554</v>
+        <v>45043</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,41 +2292,41 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K27" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L27" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>5500</v>
+        <v>19059</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>550</v>
+        <v>1059</v>
       </c>
       <c r="Q27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44783</v>
+        <v>44776</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K28" t="n">
         <v>17000</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44398</v>
+        <v>44762</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44398</v>
+        <v>45042</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K30" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L30" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M30" t="n">
-        <v>15500</v>
+        <v>17545</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>861</v>
+        <v>975</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44757</v>
+        <v>44742</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2580,41 +2580,41 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K31" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="M31" t="n">
-        <v>6250</v>
+        <v>15500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>625</v>
+        <v>861</v>
       </c>
       <c r="Q31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44211</v>
+        <v>44757</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K32" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L32" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M32" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q32" t="n">
         <v>10</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44762</v>
+        <v>44398</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44454</v>
+        <v>44398</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M34" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,41 +492,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44405</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44748</v>
+        <v>44776</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44454</v>
+        <v>45043</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
         <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>19059</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1083</v>
+        <v>1059</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44526</v>
+        <v>44742</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>5250</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>525</v>
+        <v>861</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44769</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44526</v>
+        <v>44454</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>3000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>3250</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>325</v>
+        <v>1083</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44554</v>
+        <v>44211</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L9" t="n">
         <v>5000</v>
       </c>
-      <c r="L9" t="n">
-        <v>6000</v>
-      </c>
       <c r="M9" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q9" t="n">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44435</v>
+        <v>44757</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44435</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>5250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>806</v>
+        <v>525</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44771</v>
+        <v>44526</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>850</v>
+        <v>425</v>
       </c>
       <c r="Q12" t="n">
         <v>10</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44391</v>
+        <v>44526</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="M13" t="n">
-        <v>15500</v>
+        <v>3250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>861</v>
+        <v>325</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44748</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44533</v>
+        <v>44398</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44769</v>
+        <v>44398</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44755</v>
+        <v>44412</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K17" t="n">
         <v>17000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44433</v>
+        <v>44363</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>17600</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>806</v>
+        <v>978</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45021</v>
+        <v>44405</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
         <v>17000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45035</v>
+        <v>44391</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M21" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q21" t="n">
         <v>18</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44412</v>
+        <v>44554</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44211</v>
+        <v>44771</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
         <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="Q23" t="n">
         <v>10</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44783</v>
+        <v>44533</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44377</v>
+        <v>44533</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,41 +2148,41 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M25" t="n">
-        <v>17600</v>
+        <v>4500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>978</v>
+        <v>450</v>
       </c>
       <c r="Q25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44363</v>
+        <v>44783</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45043</v>
+        <v>44755</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L27" t="n">
         <v>18000</v>
       </c>
-      <c r="L27" t="n">
-        <v>20000</v>
-      </c>
       <c r="M27" t="n">
-        <v>19059</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1059</v>
+        <v>972</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44776</v>
+        <v>45035</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44762</v>
+        <v>44433</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45042</v>
+        <v>44433</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K30" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>17545</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>975</v>
+        <v>806</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44742</v>
+        <v>44221</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2580,41 +2580,41 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L31" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M31" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>861</v>
+        <v>550</v>
       </c>
       <c r="Q31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44757</v>
+        <v>45042</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,41 +2652,41 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K32" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L32" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>6250</v>
+        <v>17545</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>625</v>
+        <v>975</v>
       </c>
       <c r="Q32" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44398</v>
+        <v>44762</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44398</v>
+        <v>45021</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="K34" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44748</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,11 +497,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
         <v>17000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,41 +564,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>806</v>
+        <v>650</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44776</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,41 +636,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45043</v>
+        <v>44363</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>19059</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1059</v>
+        <v>806</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44742</v>
+        <v>45035</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44769</v>
+        <v>44391</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44454</v>
+        <v>44762</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44211</v>
+        <v>44771</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="Q9" t="n">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44757</v>
+        <v>44742</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>6250</v>
+        <v>15500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>625</v>
+        <v>861</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1152,29 +1152,29 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,29 +1224,29 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M12" t="n">
-        <v>4250</v>
+        <v>15500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>425</v>
+        <v>861</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44526</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44748</v>
+        <v>44435</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44398</v>
+        <v>44454</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44412</v>
+        <v>44433</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44363</v>
+        <v>44757</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>6250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>806</v>
+        <v>625</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44377</v>
+        <v>44211</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,41 +1716,41 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M19" t="n">
-        <v>17600</v>
+        <v>4750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>978</v>
+        <v>475</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44405</v>
+        <v>44526</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44391</v>
+        <v>44526</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,29 +1872,29 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L21" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="M21" t="n">
-        <v>15500</v>
+        <v>4250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>861</v>
+        <v>425</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44554</v>
+        <v>44526</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L22" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M22" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>550</v>
+        <v>325</v>
       </c>
       <c r="Q22" t="n">
         <v>10</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44771</v>
+        <v>44412</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>850</v>
+        <v>972</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44533</v>
+        <v>44783</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44533</v>
+        <v>44755</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,41 +2148,41 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44783</v>
+        <v>44221</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44755</v>
+        <v>45042</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2297,11 +2297,11 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K27" t="n">
         <v>17000</v>
@@ -2310,7 +2310,7 @@
         <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>17545</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45035</v>
+        <v>44554</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,32 +2373,32 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K28" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M28" t="n">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1083</v>
+        <v>550</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44433</v>
+        <v>44769</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2441,11 +2441,11 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K29" t="n">
         <v>17000</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44433</v>
+        <v>45043</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>19059</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>806</v>
+        <v>1059</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44221</v>
+        <v>44377</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L31" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>5500</v>
+        <v>17600</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>550</v>
+        <v>978</v>
       </c>
       <c r="Q31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45042</v>
+        <v>44776</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2657,11 +2657,11 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
         <v>17000</v>
@@ -2670,7 +2670,7 @@
         <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>17545</v>
+        <v>17500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="Q32" t="n">
         <v>18</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44762</v>
+        <v>44405</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K33" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44748</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,11 +497,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>17000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,41 +564,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>650</v>
+        <v>806</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44776</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,41 +636,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44363</v>
+        <v>45043</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>19059</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>806</v>
+        <v>1059</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45035</v>
+        <v>44742</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44391</v>
+        <v>44769</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44762</v>
+        <v>44454</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44771</v>
+        <v>44211</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>4750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>850</v>
+        <v>475</v>
       </c>
       <c r="Q9" t="n">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44742</v>
+        <v>44757</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="M10" t="n">
-        <v>15500</v>
+        <v>6250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>861</v>
+        <v>625</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44398</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1152,29 +1152,29 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44398</v>
+        <v>44526</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,29 +1224,29 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="M12" t="n">
-        <v>15500</v>
+        <v>4250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>861</v>
+        <v>425</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44526</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>3250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>325</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>44748</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44454</v>
+        <v>44398</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44433</v>
+        <v>44412</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44757</v>
+        <v>44363</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>6250</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>625</v>
+        <v>806</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44211</v>
+        <v>44377</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,41 +1716,41 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>4750</v>
+        <v>17600</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>475</v>
+        <v>978</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44526</v>
+        <v>44405</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44526</v>
+        <v>44391</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1872,29 +1872,29 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L21" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M21" t="n">
-        <v>4250</v>
+        <v>15500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>425</v>
+        <v>861</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44526</v>
+        <v>44554</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L22" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M22" t="n">
-        <v>3250</v>
+        <v>5500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>325</v>
+        <v>550</v>
       </c>
       <c r="Q22" t="n">
         <v>10</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44412</v>
+        <v>44771</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>972</v>
+        <v>850</v>
       </c>
       <c r="Q23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44783</v>
+        <v>44533</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44755</v>
+        <v>44533</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,41 +2148,41 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44221</v>
+        <v>44783</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K26" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45042</v>
+        <v>44755</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2297,11 +2297,11 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
         <v>17000</v>
@@ -2310,7 +2310,7 @@
         <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>17545</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44554</v>
+        <v>45035</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,32 +2373,32 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K28" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L28" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>550</v>
+        <v>1083</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44769</v>
+        <v>44433</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2441,11 +2441,11 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
         <v>17000</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45043</v>
+        <v>44433</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K30" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>19059</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1059</v>
+        <v>806</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44377</v>
+        <v>44221</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K31" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M31" t="n">
-        <v>17600</v>
+        <v>5500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>978</v>
+        <v>550</v>
       </c>
       <c r="Q31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44776</v>
+        <v>45042</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2657,11 +2657,11 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K32" t="n">
         <v>17000</v>
@@ -2670,7 +2670,7 @@
         <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>17500</v>
+        <v>17545</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="Q32" t="n">
         <v>18</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44405</v>
+        <v>44762</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44748</v>
+        <v>44363</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>45021</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="K3" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44769</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,41 +636,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44363</v>
+        <v>44757</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>6250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>806</v>
+        <v>625</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45035</v>
+        <v>44762</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44391</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>5250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>861</v>
+        <v>525</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44762</v>
+        <v>44526</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="M8" t="n">
-        <v>15500</v>
+        <v>4250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>861</v>
+        <v>425</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44771</v>
+        <v>44526</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>3250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>850</v>
+        <v>325</v>
       </c>
       <c r="Q9" t="n">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44742</v>
+        <v>45035</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44398</v>
+        <v>44412</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
         <v>17000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44398</v>
+        <v>44776</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44454</v>
+        <v>44783</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K15" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44433</v>
+        <v>44533</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44433</v>
+        <v>44533</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>4500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>806</v>
+        <v>450</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44757</v>
+        <v>45043</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>6250</v>
+        <v>19059</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>625</v>
+        <v>1059</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44211</v>
+        <v>45042</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="K19" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>4750</v>
+        <v>17545</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>475</v>
+        <v>975</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44526</v>
+        <v>44211</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L20" t="n">
         <v>5000</v>
       </c>
-      <c r="L20" t="n">
-        <v>5500</v>
-      </c>
       <c r="M20" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q20" t="n">
         <v>10</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,41 +1860,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,41 +1932,41 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="L22" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="M22" t="n">
-        <v>3250</v>
+        <v>15500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>325</v>
+        <v>861</v>
       </c>
       <c r="Q22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
         <v>17000</v>
@@ -2022,7 +2022,7 @@
         <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44783</v>
+        <v>44454</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44755</v>
+        <v>44554</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44221</v>
+        <v>44405</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,41 +2220,41 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
         <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45042</v>
+        <v>44433</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
         <v>17000</v>
@@ -2310,7 +2310,7 @@
         <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>17545</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44554</v>
+        <v>44433</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,41 +2364,41 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K28" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44769</v>
+        <v>44771</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,29 +2448,29 @@
         <v>140</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>972</v>
+        <v>850</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45043</v>
+        <v>44742</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K30" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L30" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M30" t="n">
-        <v>19059</v>
+        <v>15500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1059</v>
+        <v>861</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44377</v>
+        <v>44748</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K31" t="n">
         <v>17000</v>
@@ -2598,7 +2598,7 @@
         <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44776</v>
+        <v>44221</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,32 +2661,32 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K32" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M32" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44405</v>
+        <v>44755</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2729,11 +2729,11 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K33" t="n">
         <v>17000</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45021</v>
+        <v>44391</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44363</v>
+        <v>45043</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>19059</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>806</v>
+        <v>1059</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45021</v>
+        <v>44454</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44769</v>
+        <v>44771</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -648,29 +648,29 @@
         <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>850</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44757</v>
+        <v>44398</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44762</v>
+        <v>44398</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,11 +785,11 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
         <v>15000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44211</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L7" t="n">
         <v>5000</v>
       </c>
-      <c r="L7" t="n">
-        <v>5500</v>
-      </c>
       <c r="M7" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q7" t="n">
         <v>10</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44526</v>
+        <v>44554</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>425</v>
+        <v>550</v>
       </c>
       <c r="Q8" t="n">
         <v>10</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44526</v>
+        <v>44748</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,41 +996,41 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45035</v>
+        <v>44405</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44412</v>
+        <v>44757</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1152,29 +1152,29 @@
         <v>150</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44776</v>
+        <v>45042</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,11 +1217,11 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K12" t="n">
         <v>17000</v>
@@ -1230,7 +1230,7 @@
         <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>17545</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>45021</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,11 +1289,11 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="K13" t="n">
         <v>17000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>44783</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44783</v>
+        <v>44377</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
         <v>17000</v>
@@ -1446,7 +1446,7 @@
         <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44533</v>
+        <v>44363</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,32 +1509,32 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>650</v>
+        <v>806</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44533</v>
+        <v>44221</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K17" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M17" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q17" t="n">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45043</v>
+        <v>44435</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L18" t="n">
         <v>18000</v>
       </c>
-      <c r="L18" t="n">
-        <v>20000</v>
-      </c>
       <c r="M18" t="n">
-        <v>19059</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1059</v>
+        <v>972</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45042</v>
+        <v>44435</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>17545</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>975</v>
+        <v>806</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44211</v>
+        <v>44762</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M20" t="n">
-        <v>4750</v>
+        <v>15500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>475</v>
+        <v>861</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L22" t="n">
         <v>15000</v>
       </c>
-      <c r="L22" t="n">
-        <v>16000</v>
-      </c>
       <c r="M22" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44377</v>
+        <v>45035</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>17600</v>
+        <v>19500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>978</v>
+        <v>1083</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44454</v>
+        <v>44776</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44554</v>
+        <v>44412</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K25" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44405</v>
+        <v>44526</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,41 +2220,41 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44433</v>
+        <v>44526</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2304,29 +2304,29 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44433</v>
+        <v>44526</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2376,29 +2376,29 @@
         <v>120</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>3250</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>806</v>
+        <v>325</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44771</v>
+        <v>44742</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,41 +2436,41 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>15500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44742</v>
+        <v>44391</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
         <v>15000</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44748</v>
+        <v>44755</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K31" t="n">
         <v>17000</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44221</v>
+        <v>44533</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L32" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q32" t="n">
         <v>10</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44755</v>
+        <v>44533</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2724,41 +2724,41 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q33" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44391</v>
+        <v>44769</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K34" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45043</v>
+        <v>45035</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
         <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>19059</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1059</v>
+        <v>1083</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44454</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>19500</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1083</v>
+        <v>650</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44771</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="Q4" t="n">
         <v>10</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44398</v>
+        <v>44783</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
         <v>17000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44398</v>
+        <v>44363</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L6" t="n">
         <v>15000</v>
       </c>
-      <c r="L6" t="n">
-        <v>16000</v>
-      </c>
       <c r="M6" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44211</v>
+        <v>45043</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="K7" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>4750</v>
+        <v>19059</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>475</v>
+        <v>1059</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44554</v>
+        <v>44526</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
         <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M8" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q8" t="n">
         <v>10</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44748</v>
+        <v>44526</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,41 +996,41 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44405</v>
+        <v>44526</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>3250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>325</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44757</v>
+        <v>44776</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45042</v>
+        <v>44377</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,11 +1217,11 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
         <v>17000</v>
@@ -1230,7 +1230,7 @@
         <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>17545</v>
+        <v>17600</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44783</v>
+        <v>45042</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K14" t="n">
         <v>17000</v>
@@ -1374,7 +1374,7 @@
         <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>17545</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44377</v>
+        <v>44454</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>17600</v>
+        <v>19500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>978</v>
+        <v>1083</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44363</v>
+        <v>44398</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44221</v>
+        <v>44398</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L17" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M17" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>550</v>
+        <v>861</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44435</v>
+        <v>44762</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44435</v>
+        <v>44405</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44762</v>
+        <v>44755</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1800,13 +1800,13 @@
         <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44433</v>
+        <v>44748</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K21" t="n">
         <v>17000</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45035</v>
+        <v>44433</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44776</v>
+        <v>44435</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,11 +2081,11 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
         <v>17000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44412</v>
+        <v>44435</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44526</v>
+        <v>44412</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K26" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44526</v>
+        <v>44769</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,41 +2292,41 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K27" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44526</v>
+        <v>44211</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K28" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L28" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M28" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="Q28" t="n">
         <v>10</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44742</v>
+        <v>44757</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,41 +2436,41 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K29" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="M29" t="n">
-        <v>15500</v>
+        <v>6250</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>861</v>
+        <v>625</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44391</v>
+        <v>44742</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K30" t="n">
         <v>15000</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44755</v>
+        <v>44554</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K31" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M31" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44533</v>
+        <v>44771</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K32" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M32" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q32" t="n">
         <v>10</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44533</v>
+        <v>44221</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K33" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L33" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M33" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q33" t="n">
         <v>10</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44769</v>
+        <v>44391</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44363</v>
+        <v>45114</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45043</v>
+        <v>44363</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>19059</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1059</v>
+        <v>806</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44526</v>
+        <v>45043</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>5250</v>
+        <v>19059</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>525</v>
+        <v>1059</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M9" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="Q9" t="n">
         <v>10</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="Q10" t="n">
         <v>10</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44776</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>3250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>972</v>
+        <v>325</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44377</v>
+        <v>44776</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
         <v>17000</v>
@@ -1230,7 +1230,7 @@
         <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45021</v>
+        <v>44377</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
         <v>17000</v>
@@ -1302,7 +1302,7 @@
         <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45042</v>
+        <v>45021</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="K14" t="n">
         <v>17000</v>
@@ -1374,7 +1374,7 @@
         <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>17545</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44454</v>
+        <v>45042</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K15" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>19500</v>
+        <v>17545</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1083</v>
+        <v>975</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44398</v>
+        <v>44454</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44762</v>
+        <v>44398</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
         <v>15000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44405</v>
+        <v>44762</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44755</v>
+        <v>44405</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
         <v>17000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44748</v>
+        <v>44755</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
         <v>17000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44433</v>
+        <v>44748</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,11 +1937,11 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K22" t="n">
         <v>17000</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44412</v>
+        <v>44435</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44769</v>
+        <v>44412</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K27" t="n">
         <v>17000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44211</v>
+        <v>44769</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,41 +2364,41 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
         <v>140</v>
       </c>
       <c r="K28" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44757</v>
+        <v>44211</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L29" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M29" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="Q29" t="n">
         <v>10</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44742</v>
+        <v>44757</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2508,41 +2508,41 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K30" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L30" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="M30" t="n">
-        <v>15500</v>
+        <v>6250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>861</v>
+        <v>625</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44554</v>
+        <v>44742</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2580,41 +2580,41 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K31" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M31" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>550</v>
+        <v>861</v>
       </c>
       <c r="Q31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44771</v>
+        <v>44554</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M32" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="Q32" t="n">
         <v>10</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44221</v>
+        <v>44771</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2736,13 +2736,13 @@
         <v>140</v>
       </c>
       <c r="K33" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M33" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="Q33" t="n">
         <v>10</v>
@@ -2781,58 +2781,130 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>140</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>10</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
         <v>44391</v>
       </c>
-      <c r="E34" t="n">
-        <v>15</v>
-      </c>
-      <c r="F34" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="E35" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>Cultivar IV Región</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J34" t="n">
+      <c r="J35" t="n">
         <v>100</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K35" t="n">
         <v>15000</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L35" t="n">
         <v>16000</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M35" t="n">
         <v>15500</v>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P34" t="n">
+      <c r="P35" t="n">
         <v>861</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q35" t="n">
         <v>18</v>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45035</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>6500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1083</v>
+        <v>650</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M3" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q3" t="n">
         <v>10</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44211</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L4" t="n">
         <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="Q4" t="n">
         <v>10</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44783</v>
+        <v>44391</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45114</v>
+        <v>44554</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
         <v>5000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44363</v>
+        <v>44769</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45043</v>
+        <v>44377</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L8" t="n">
         <v>18000</v>
       </c>
-      <c r="L8" t="n">
-        <v>20000</v>
-      </c>
       <c r="M8" t="n">
-        <v>19059</v>
+        <v>17600</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1059</v>
+        <v>978</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44526</v>
+        <v>44755</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44526</v>
+        <v>44748</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44742</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K11" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="n">
-        <v>3250</v>
+        <v>15500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>325</v>
+        <v>861</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44776</v>
+        <v>45021</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K12" t="n">
         <v>17000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44377</v>
+        <v>44783</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
         <v>17000</v>
@@ -1302,7 +1302,7 @@
         <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45021</v>
+        <v>44757</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45042</v>
+        <v>44433</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
         <v>17000</v>
@@ -1446,7 +1446,7 @@
         <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>17545</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44454</v>
+        <v>44433</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44398</v>
+        <v>45035</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44398</v>
+        <v>45042</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K18" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>15500</v>
+        <v>17545</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>861</v>
+        <v>975</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44762</v>
+        <v>44405</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K20" t="n">
         <v>17000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44755</v>
+        <v>44776</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
         <v>17000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44748</v>
+        <v>44771</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>972</v>
+        <v>850</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44433</v>
+        <v>44363</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44433</v>
+        <v>44762</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M24" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44435</v>
+        <v>44221</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,41 +2148,41 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44435</v>
+        <v>45114</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,41 +2220,41 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44412</v>
+        <v>44398</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
         <v>17000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44769</v>
+        <v>44398</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44211</v>
+        <v>44435</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,32 +2445,32 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44757</v>
+        <v>44435</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2508,41 +2508,41 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>6250</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>625</v>
+        <v>806</v>
       </c>
       <c r="Q30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44742</v>
+        <v>44454</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L31" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M31" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44554</v>
+        <v>45043</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,41 +2652,41 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K32" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L32" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>5500</v>
+        <v>19059</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>550</v>
+        <v>1059</v>
       </c>
       <c r="Q32" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44771</v>
+        <v>44526</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L33" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M33" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>850</v>
+        <v>525</v>
       </c>
       <c r="Q33" t="n">
         <v>10</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44221</v>
+        <v>44526</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L34" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M34" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="Q34" t="n">
         <v>10</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44391</v>
+        <v>44526</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2868,41 +2868,41 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K35" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="L35" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="M35" t="n">
-        <v>15500</v>
+        <v>3250</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>861</v>
+        <v>325</v>
       </c>
       <c r="Q35" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>45035</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>6500</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>650</v>
+        <v>1083</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L3" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q3" t="n">
         <v>10</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44211</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L4" t="n">
         <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="Q4" t="n">
         <v>10</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44391</v>
+        <v>44783</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44554</v>
+        <v>45114</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
         <v>5000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44769</v>
+        <v>44363</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44377</v>
+        <v>45043</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>17600</v>
+        <v>19059</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>978</v>
+        <v>1059</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44755</v>
+        <v>44526</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44748</v>
+        <v>44526</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44742</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="L11" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="M11" t="n">
-        <v>15500</v>
+        <v>3250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>861</v>
+        <v>325</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45021</v>
+        <v>44776</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
         <v>17000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44783</v>
+        <v>44377</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
         <v>17000</v>
@@ -1302,7 +1302,7 @@
         <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44757</v>
+        <v>45021</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44433</v>
+        <v>45042</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K15" t="n">
         <v>17000</v>
@@ -1446,7 +1446,7 @@
         <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>17545</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44433</v>
+        <v>44454</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45035</v>
+        <v>44398</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45042</v>
+        <v>44398</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M18" t="n">
-        <v>17545</v>
+        <v>15500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>975</v>
+        <v>861</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44405</v>
+        <v>44762</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44412</v>
+        <v>44405</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
         <v>17000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44776</v>
+        <v>44755</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
         <v>17000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44771</v>
+        <v>44748</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>850</v>
+        <v>972</v>
       </c>
       <c r="Q22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44363</v>
+        <v>44433</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44762</v>
+        <v>44433</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L24" t="n">
         <v>15000</v>
       </c>
-      <c r="L24" t="n">
-        <v>16000</v>
-      </c>
       <c r="M24" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44221</v>
+        <v>44435</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,41 +2148,41 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45114</v>
+        <v>44435</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,41 +2220,41 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K26" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44398</v>
+        <v>44412</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K27" t="n">
         <v>17000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44398</v>
+        <v>44769</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K28" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44435</v>
+        <v>44211</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,32 +2445,32 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44435</v>
+        <v>44757</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2508,41 +2508,41 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>6250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>806</v>
+        <v>625</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44454</v>
+        <v>44742</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K31" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M31" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45043</v>
+        <v>44554</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,41 +2652,41 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M32" t="n">
-        <v>19059</v>
+        <v>5500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1059</v>
+        <v>550</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44526</v>
+        <v>44771</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K33" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M33" t="n">
-        <v>5250</v>
+        <v>8500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>525</v>
+        <v>850</v>
       </c>
       <c r="Q33" t="n">
         <v>10</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44526</v>
+        <v>44221</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K34" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L34" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M34" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>425</v>
+        <v>550</v>
       </c>
       <c r="Q34" t="n">
         <v>10</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44526</v>
+        <v>44391</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2868,41 +2868,41 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="L35" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="M35" t="n">
-        <v>3250</v>
+        <v>15500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>325</v>
+        <v>861</v>
       </c>
       <c r="Q35" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44762</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>650</v>
+        <v>861</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44412</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,41 +564,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K3" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44211</v>
+        <v>44783</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,41 +636,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K4" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44391</v>
+        <v>44211</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M5" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>861</v>
+        <v>475</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44554</v>
+        <v>45042</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>5500</v>
+        <v>17545</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>550</v>
+        <v>975</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44769</v>
+        <v>44377</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
         <v>17000</v>
@@ -870,7 +870,7 @@
         <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44377</v>
+        <v>44221</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>17600</v>
+        <v>5500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>978</v>
+        <v>550</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44742</v>
+        <v>44454</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L11" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45021</v>
+        <v>44363</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44783</v>
+        <v>44757</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1296,29 +1296,29 @@
         <v>150</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44757</v>
+        <v>44435</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44433</v>
+        <v>44533</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>806</v>
+        <v>650</v>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45035</v>
+        <v>44533</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="M17" t="n">
-        <v>19500</v>
+        <v>4500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1083</v>
+        <v>450</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45042</v>
+        <v>45114</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M18" t="n">
-        <v>17545</v>
+        <v>5500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>975</v>
+        <v>550</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44405</v>
+        <v>45035</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44412</v>
+        <v>44776</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
         <v>17000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44776</v>
+        <v>44405</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
         <v>17000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44771</v>
+        <v>44398</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>850</v>
+        <v>972</v>
       </c>
       <c r="Q22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44363</v>
+        <v>44398</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44762</v>
+        <v>45021</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="K24" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44221</v>
+        <v>44554</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
         <v>5000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45114</v>
+        <v>45043</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,41 +2220,41 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K26" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L26" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M26" t="n">
-        <v>5500</v>
+        <v>19059</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>550</v>
+        <v>1059</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44398</v>
+        <v>44742</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44398</v>
+        <v>44526</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,41 +2364,41 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L28" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="M28" t="n">
-        <v>15500</v>
+        <v>5250</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>861</v>
+        <v>525</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44435</v>
+        <v>44526</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,29 +2448,29 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44435</v>
+        <v>44526</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2520,29 +2520,29 @@
         <v>120</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>3250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>806</v>
+        <v>325</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44454</v>
+        <v>44391</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M31" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45043</v>
+        <v>44771</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,41 +2652,41 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="K32" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M32" t="n">
-        <v>19059</v>
+        <v>8500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1059</v>
+        <v>850</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44526</v>
+        <v>44433</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2724,41 +2724,41 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44526</v>
+        <v>44433</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2796,41 +2796,41 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K34" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>4250</v>
+        <v>14500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>425</v>
+        <v>806</v>
       </c>
       <c r="Q34" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44526</v>
+        <v>44769</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2868,41 +2868,41 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K35" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>3250</v>
+        <v>17500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>325</v>
+        <v>972</v>
       </c>
       <c r="Q35" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44762</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>15500</v>
+        <v>6500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>861</v>
+        <v>650</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44412</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,41 +564,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44783</v>
+        <v>44211</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,41 +636,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44211</v>
+        <v>44391</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>4750</v>
+        <v>15500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>475</v>
+        <v>861</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45042</v>
+        <v>44554</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>17545</v>
+        <v>5500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>975</v>
+        <v>550</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44377</v>
+        <v>44769</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
         <v>17000</v>
@@ -870,7 +870,7 @@
         <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44221</v>
+        <v>44377</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>5500</v>
+        <v>17600</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>550</v>
+        <v>978</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44454</v>
+        <v>44742</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44363</v>
+        <v>45021</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44757</v>
+        <v>44783</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1296,29 +1296,29 @@
         <v>150</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>44757</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44533</v>
+        <v>44433</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>650</v>
+        <v>806</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44533</v>
+        <v>45035</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K17" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="L17" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>4500</v>
+        <v>19500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>450</v>
+        <v>1083</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45114</v>
+        <v>45042</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>5500</v>
+        <v>17545</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>550</v>
+        <v>975</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45035</v>
+        <v>44405</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44776</v>
+        <v>44412</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K20" t="n">
         <v>17000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44405</v>
+        <v>44776</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
         <v>17000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44398</v>
+        <v>44771</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>972</v>
+        <v>850</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44398</v>
+        <v>44363</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L23" t="n">
         <v>15000</v>
       </c>
-      <c r="L23" t="n">
-        <v>16000</v>
-      </c>
       <c r="M23" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45021</v>
+        <v>44762</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44554</v>
+        <v>44221</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K25" t="n">
         <v>5000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45043</v>
+        <v>45114</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,41 +2220,41 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K26" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M26" t="n">
-        <v>19059</v>
+        <v>5500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1059</v>
+        <v>550</v>
       </c>
       <c r="Q26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44742</v>
+        <v>44398</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,41 +2364,41 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M28" t="n">
-        <v>5250</v>
+        <v>15500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>525</v>
+        <v>861</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44526</v>
+        <v>44435</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,29 +2448,29 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44526</v>
+        <v>44435</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2520,29 +2520,29 @@
         <v>120</v>
       </c>
       <c r="K30" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>3250</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>325</v>
+        <v>806</v>
       </c>
       <c r="Q30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44391</v>
+        <v>44454</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L31" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M31" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44771</v>
+        <v>45043</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,41 +2652,41 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>8500</v>
+        <v>19059</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>850</v>
+        <v>1059</v>
       </c>
       <c r="Q32" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44433</v>
+        <v>44526</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2724,41 +2724,41 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q33" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44433</v>
+        <v>44526</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2796,41 +2796,41 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>4250</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>806</v>
+        <v>425</v>
       </c>
       <c r="Q34" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44769</v>
+        <v>44526</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2868,41 +2868,41 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M35" t="n">
-        <v>17500</v>
+        <v>3250</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>972</v>
+        <v>325</v>
       </c>
       <c r="Q35" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44762</v>
+        <v>44454</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44412</v>
+        <v>44757</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,29 +576,29 @@
         <v>150</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44783</v>
+        <v>44554</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44211</v>
+        <v>45035</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,41 +708,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>4750</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>475</v>
+        <v>1083</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45042</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>17545</v>
+        <v>6500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>975</v>
+        <v>650</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44377</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M7" t="n">
-        <v>17600</v>
+        <v>4500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>978</v>
+        <v>450</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44221</v>
+        <v>45021</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44755</v>
+        <v>44363</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44748</v>
+        <v>45043</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>19059</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>1059</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44454</v>
+        <v>44748</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44363</v>
+        <v>44412</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44757</v>
+        <v>44771</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="Q13" t="n">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>45042</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K14" t="n">
         <v>17000</v>
@@ -1374,7 +1374,7 @@
         <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>17545</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44435</v>
+        <v>44398</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44533</v>
+        <v>44398</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,41 +1500,41 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>650</v>
+        <v>861</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44533</v>
+        <v>44405</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,32 +1581,32 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K17" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45114</v>
+        <v>44433</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45035</v>
+        <v>44433</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44776</v>
+        <v>44755</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
         <v>17000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44405</v>
+        <v>44769</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44398</v>
+        <v>45114</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44398</v>
+        <v>44783</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K23" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45021</v>
+        <v>44221</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44554</v>
+        <v>44526</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
         <v>5000</v>
       </c>
       <c r="L25" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M25" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q25" t="n">
         <v>10</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45043</v>
+        <v>44526</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="M26" t="n">
-        <v>19059</v>
+        <v>4250</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1059</v>
+        <v>425</v>
       </c>
       <c r="Q26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44742</v>
+        <v>44526</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,41 +2292,41 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K27" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="L27" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="M27" t="n">
-        <v>15500</v>
+        <v>3250</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>861</v>
+        <v>325</v>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44526</v>
+        <v>44391</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,41 +2364,41 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M28" t="n">
-        <v>5250</v>
+        <v>15500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>525</v>
+        <v>861</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44526</v>
+        <v>44435</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2448,29 +2448,29 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44526</v>
+        <v>44435</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2520,29 +2520,29 @@
         <v>120</v>
       </c>
       <c r="K30" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>3250</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>325</v>
+        <v>806</v>
       </c>
       <c r="Q30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44391</v>
+        <v>44377</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
         <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L31" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>15500</v>
+        <v>17600</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>861</v>
+        <v>978</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44771</v>
+        <v>44762</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,32 +2661,32 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M32" t="n">
-        <v>8500</v>
+        <v>15500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="Q32" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44433</v>
+        <v>44742</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44433</v>
+        <v>44211</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2796,41 +2796,41 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>4750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>806</v>
+        <v>475</v>
       </c>
       <c r="Q34" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44769</v>
+        <v>44776</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K35" t="n">
         <v>17000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44454</v>
+        <v>44769</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44757</v>
+        <v>44221</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L3" t="n">
         <v>6000</v>
       </c>
-      <c r="L3" t="n">
-        <v>6500</v>
-      </c>
       <c r="M3" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q3" t="n">
         <v>10</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44554</v>
+        <v>45114</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
         <v>5000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45035</v>
+        <v>44454</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
         <v>19000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44742</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>650</v>
+        <v>861</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44755</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,41 +852,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45021</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44363</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,41 +996,41 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>4500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>806</v>
+        <v>450</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45043</v>
+        <v>44783</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L10" t="n">
         <v>18000</v>
       </c>
-      <c r="L10" t="n">
-        <v>20000</v>
-      </c>
       <c r="M10" t="n">
-        <v>19059</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1059</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44748</v>
+        <v>45021</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K11" t="n">
         <v>17000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44412</v>
+        <v>44554</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44771</v>
+        <v>44405</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
         <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>850</v>
+        <v>972</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45042</v>
+        <v>44762</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>17545</v>
+        <v>15500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>975</v>
+        <v>861</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L16" t="n">
         <v>15000</v>
       </c>
-      <c r="L16" t="n">
-        <v>16000</v>
-      </c>
       <c r="M16" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44405</v>
+        <v>45042</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="K17" t="n">
         <v>17000</v>
@@ -1590,7 +1590,7 @@
         <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>17545</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44433</v>
+        <v>44776</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
         <v>17000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44433</v>
+        <v>45035</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44755</v>
+        <v>44412</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K20" t="n">
         <v>17000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44769</v>
+        <v>44433</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
         <v>17000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45114</v>
+        <v>44433</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,41 +1932,41 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44783</v>
+        <v>44211</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,41 +2004,41 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44221</v>
+        <v>44398</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44526</v>
+        <v>44398</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,41 +2148,41 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L25" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M25" t="n">
-        <v>5250</v>
+        <v>15500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>525</v>
+        <v>861</v>
       </c>
       <c r="Q25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44526</v>
+        <v>44771</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>425</v>
+        <v>850</v>
       </c>
       <c r="Q26" t="n">
         <v>10</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44526</v>
+        <v>44391</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,41 +2292,41 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="L27" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="M27" t="n">
-        <v>3250</v>
+        <v>15500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>325</v>
+        <v>861</v>
       </c>
       <c r="Q27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44391</v>
+        <v>44748</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K28" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44435</v>
+        <v>44363</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44435</v>
+        <v>45043</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>19059</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>806</v>
+        <v>1059</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44762</v>
+        <v>44526</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,32 +2661,32 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L32" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="M32" t="n">
-        <v>15500</v>
+        <v>5250</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>861</v>
+        <v>525</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44742</v>
+        <v>44526</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,32 +2733,32 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L33" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="M33" t="n">
-        <v>15500</v>
+        <v>4250</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>861</v>
+        <v>425</v>
       </c>
       <c r="Q33" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44211</v>
+        <v>44526</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K34" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L34" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M34" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>475</v>
+        <v>325</v>
       </c>
       <c r="Q34" t="n">
         <v>10</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44776</v>
+        <v>44757</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,32 +2877,32 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M35" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q35" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44526</v>
+        <v>45212</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2657,24 +2657,24 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
         <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L32" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>5250</v>
+        <v>19500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>525</v>
+        <v>1083</v>
       </c>
       <c r="Q32" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44526</v>
+        <v>45212</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2729,24 +2729,24 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K33" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="L33" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="M33" t="n">
-        <v>4250</v>
+        <v>16500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>425</v>
+        <v>917</v>
       </c>
       <c r="Q33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44526</v>
+        <v>45212</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K34" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L34" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>3250</v>
+        <v>6500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>325</v>
+        <v>650</v>
       </c>
       <c r="Q34" t="n">
         <v>10</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44757</v>
+        <v>44526</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L35" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M35" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,12 +2899,228 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q35" t="n">
         <v>10</v>
       </c>
       <c r="R35" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="E36" t="n">
+        <v>15</v>
+      </c>
+      <c r="F36" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>100</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>425</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>10</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="E37" t="n">
+        <v>15</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>120</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>325</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>10</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="E38" t="n">
+        <v>15</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Cultivar XV región</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>150</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>10</v>
+      </c>
+      <c r="R38" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44769</v>
+        <v>45021</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="K2" t="n">
         <v>17000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44221</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>5500</v>
+        <v>17600</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>550</v>
+        <v>978</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45114</v>
+        <v>44755</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -648,29 +648,29 @@
         <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44454</v>
+        <v>44412</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44742</v>
+        <v>44433</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44755</v>
+        <v>44433</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>45042</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>17545</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>650</v>
+        <v>975</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44533</v>
+        <v>44742</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>4500</v>
+        <v>15500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>450</v>
+        <v>861</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44783</v>
+        <v>44533</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,32 +1077,32 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45021</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44554</v>
+        <v>44769</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44405</v>
+        <v>44762</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44762</v>
+        <v>44748</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44435</v>
+        <v>44221</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44435</v>
+        <v>44405</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45042</v>
+        <v>44757</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M17" t="n">
-        <v>17545</v>
+        <v>6250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>975</v>
+        <v>625</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44776</v>
+        <v>45043</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>19059</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>972</v>
+        <v>1059</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45035</v>
+        <v>44783</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K19" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44412</v>
+        <v>44363</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44433</v>
+        <v>44211</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44433</v>
+        <v>44454</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44211</v>
+        <v>45212</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="L23" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>4750</v>
+        <v>19500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>475</v>
+        <v>1083</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44398</v>
+        <v>45212</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,25 +2076,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L24" t="n">
         <v>17000</v>
       </c>
-      <c r="L24" t="n">
-        <v>18000</v>
-      </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>972</v>
+        <v>917</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44398</v>
+        <v>45212</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,41 +2148,41 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L25" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>15500</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>861</v>
+        <v>650</v>
       </c>
       <c r="Q25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44771</v>
+        <v>44526</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>850</v>
+        <v>525</v>
       </c>
       <c r="Q26" t="n">
         <v>10</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44391</v>
+        <v>44526</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2304,29 +2304,29 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L27" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="M27" t="n">
-        <v>15500</v>
+        <v>4250</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>861</v>
+        <v>425</v>
       </c>
       <c r="Q27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44748</v>
+        <v>44526</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,41 +2364,41 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>3250</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>972</v>
+        <v>325</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44363</v>
+        <v>44398</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45043</v>
+        <v>44398</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L30" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M30" t="n">
-        <v>19059</v>
+        <v>15500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1059</v>
+        <v>861</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44377</v>
+        <v>44776</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K31" t="n">
         <v>17000</v>
@@ -2598,7 +2598,7 @@
         <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45212</v>
+        <v>44391</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2664,13 +2664,13 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M32" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q32" t="n">
         <v>18</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45212</v>
+        <v>44554</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2729,24 +2729,24 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K33" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L33" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M33" t="n">
-        <v>16500</v>
+        <v>5500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>917</v>
+        <v>550</v>
       </c>
       <c r="Q33" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45212</v>
+        <v>44435</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2796,41 +2796,41 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q34" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44526</v>
+        <v>44435</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2868,41 +2868,41 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K35" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>5250</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>525</v>
+        <v>806</v>
       </c>
       <c r="Q35" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44526</v>
+        <v>44771</v>
       </c>
       <c r="E36" t="n">
         <v>15</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K36" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L36" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>425</v>
+        <v>850</v>
       </c>
       <c r="Q36" t="n">
         <v>10</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44526</v>
+        <v>45035</v>
       </c>
       <c r="E37" t="n">
         <v>15</v>
@@ -3012,41 +3012,41 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K37" t="n">
-        <v>3000</v>
+        <v>19000</v>
       </c>
       <c r="L37" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
       <c r="M37" t="n">
-        <v>3250</v>
+        <v>19500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>325</v>
+        <v>1083</v>
       </c>
       <c r="Q37" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44757</v>
+        <v>45114</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K38" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L38" t="n">
         <v>6000</v>
       </c>
-      <c r="L38" t="n">
-        <v>6500</v>
-      </c>
       <c r="M38" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q38" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45021</v>
+        <v>45114</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44742</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>17600</v>
+        <v>15500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>978</v>
+        <v>861</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44755</v>
+        <v>44526</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44412</v>
+        <v>44526</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,41 +708,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44433</v>
+        <v>44526</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>3250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>972</v>
+        <v>325</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44433</v>
+        <v>45021</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45042</v>
+        <v>44554</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,41 +924,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>17545</v>
+        <v>5500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>975</v>
+        <v>550</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44742</v>
+        <v>44433</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44533</v>
+        <v>44433</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>650</v>
+        <v>806</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44211</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L11" t="n">
         <v>5000</v>
       </c>
       <c r="M11" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="Q11" t="n">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44769</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,11 +1217,11 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
         <v>17000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44762</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L13" t="n">
         <v>15000</v>
       </c>
-      <c r="L13" t="n">
-        <v>16000</v>
-      </c>
       <c r="M13" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44748</v>
+        <v>44363</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44221</v>
+        <v>44757</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M15" t="n">
-        <v>5500</v>
+        <v>6250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q15" t="n">
         <v>10</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44405</v>
+        <v>45042</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="K16" t="n">
         <v>17000</v>
@@ -1518,7 +1518,7 @@
         <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>17545</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44757</v>
+        <v>44377</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,32 +1581,32 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>6250</v>
+        <v>17600</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>625</v>
+        <v>978</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44783</v>
+        <v>44405</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
         <v>17000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44363</v>
+        <v>44398</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44211</v>
+        <v>44398</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L21" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M21" t="n">
-        <v>4750</v>
+        <v>15500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>475</v>
+        <v>861</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44454</v>
+        <v>44391</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M22" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45212</v>
+        <v>44755</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K23" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45212</v>
+        <v>44776</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,25 +2076,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>917</v>
+        <v>972</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45212</v>
+        <v>44769</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,41 +2148,41 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44526</v>
+        <v>44412</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K26" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44526</v>
+        <v>44748</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,41 +2292,41 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K27" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>425</v>
+        <v>972</v>
       </c>
       <c r="Q27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L28" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>3250</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>325</v>
+        <v>650</v>
       </c>
       <c r="Q28" t="n">
         <v>10</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44398</v>
+        <v>44533</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,41 +2436,41 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44398</v>
+        <v>44771</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2508,41 +2508,41 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K30" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44776</v>
+        <v>44762</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K31" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M31" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44391</v>
+        <v>44454</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K32" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L32" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q32" t="n">
         <v>18</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44554</v>
+        <v>45212</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2729,24 +2729,24 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L33" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M33" t="n">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>550</v>
+        <v>1083</v>
       </c>
       <c r="Q33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44435</v>
+        <v>45212</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2796,25 +2796,25 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K34" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L34" t="n">
         <v>17000</v>
       </c>
-      <c r="L34" t="n">
-        <v>18000</v>
-      </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>972</v>
+        <v>917</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44435</v>
+        <v>45212</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,32 +2877,32 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>806</v>
+        <v>650</v>
       </c>
       <c r="Q35" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44771</v>
+        <v>44221</v>
       </c>
       <c r="E36" t="n">
         <v>15</v>
@@ -2952,13 +2952,13 @@
         <v>140</v>
       </c>
       <c r="K36" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L36" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M36" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="Q36" t="n">
         <v>10</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45114</v>
+        <v>44783</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,32 +3093,32 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K38" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L38" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M38" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q38" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45114</v>
+        <v>44211</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L2" t="n">
         <v>5000</v>
       </c>
-      <c r="L2" t="n">
-        <v>6000</v>
-      </c>
       <c r="M2" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q2" t="n">
         <v>10</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44742</v>
+        <v>44783</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44526</v>
+        <v>44755</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44526</v>
+        <v>44554</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>425</v>
+        <v>550</v>
       </c>
       <c r="Q5" t="n">
         <v>10</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44526</v>
+        <v>44391</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>3250</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>325</v>
+        <v>861</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45021</v>
+        <v>44742</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44554</v>
+        <v>44398</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44433</v>
+        <v>45021</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44211</v>
+        <v>44771</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="Q11" t="n">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44748</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,11 +1217,11 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K12" t="n">
         <v>17000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>45042</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>17545</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>806</v>
+        <v>975</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44363</v>
+        <v>44435</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44757</v>
+        <v>44435</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1428,41 +1428,41 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>6250</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>625</v>
+        <v>806</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45042</v>
+        <v>45212</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M16" t="n">
-        <v>17545</v>
+        <v>19500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>975</v>
+        <v>1083</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44377</v>
+        <v>45212</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L17" t="n">
         <v>17000</v>
       </c>
-      <c r="L17" t="n">
-        <v>18000</v>
-      </c>
       <c r="M17" t="n">
-        <v>17600</v>
+        <v>16500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>978</v>
+        <v>917</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45043</v>
+        <v>45212</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>19059</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1059</v>
+        <v>650</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44405</v>
+        <v>44377</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
         <v>17000</v>
@@ -1734,7 +1734,7 @@
         <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
         <v>17000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44398</v>
+        <v>44363</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L21" t="n">
         <v>15000</v>
       </c>
-      <c r="L21" t="n">
-        <v>16000</v>
-      </c>
       <c r="M21" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q21" t="n">
         <v>18</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44391</v>
+        <v>44757</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,41 +1932,41 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K22" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="M22" t="n">
-        <v>15500</v>
+        <v>6250</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>861</v>
+        <v>625</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44755</v>
+        <v>44533</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44776</v>
+        <v>44533</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,41 +2076,41 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44412</v>
+        <v>45043</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>19059</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>972</v>
+        <v>1059</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44748</v>
+        <v>44454</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44533</v>
+        <v>44762</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,32 +2373,32 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>650</v>
+        <v>861</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44533</v>
+        <v>44412</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,41 +2436,41 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K29" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44771</v>
+        <v>44526</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L30" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M30" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>850</v>
+        <v>525</v>
       </c>
       <c r="Q30" t="n">
         <v>10</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44762</v>
+        <v>44526</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2580,41 +2580,41 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L31" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="M31" t="n">
-        <v>15500</v>
+        <v>4250</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>861</v>
+        <v>425</v>
       </c>
       <c r="Q31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44454</v>
+        <v>44526</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,41 +2652,41 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K32" t="n">
-        <v>19000</v>
+        <v>3000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="M32" t="n">
-        <v>19500</v>
+        <v>3250</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1083</v>
+        <v>325</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45212</v>
+        <v>44433</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2736,13 +2736,13 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45212</v>
+        <v>44433</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2808,13 +2808,13 @@
         <v>120</v>
       </c>
       <c r="K34" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>917</v>
+        <v>806</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45212</v>
+        <v>44776</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2868,41 +2868,41 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K35" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q35" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44221</v>
+        <v>45035</v>
       </c>
       <c r="E36" t="n">
         <v>15</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,32 +2949,32 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K36" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L36" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M36" t="n">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>550</v>
+        <v>1083</v>
       </c>
       <c r="Q36" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45035</v>
+        <v>45114</v>
       </c>
       <c r="E37" t="n">
         <v>15</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,32 +3021,32 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K37" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="L37" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M37" t="n">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1083</v>
+        <v>550</v>
       </c>
       <c r="Q37" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44783</v>
+        <v>44221</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,32 +3093,32 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K38" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L38" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M38" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q38" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44211</v>
+        <v>44405</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -504,29 +504,29 @@
         <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44783</v>
+        <v>45042</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,11 +569,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K3" t="n">
         <v>17000</v>
@@ -582,7 +582,7 @@
         <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>17545</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44755</v>
+        <v>44769</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44554</v>
+        <v>44433</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,41 +708,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44391</v>
+        <v>44433</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L6" t="n">
         <v>15000</v>
       </c>
-      <c r="L6" t="n">
-        <v>16000</v>
-      </c>
       <c r="M6" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44742</v>
+        <v>44211</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>861</v>
+        <v>475</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44398</v>
+        <v>44377</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -942,7 +942,7 @@
         <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44398</v>
+        <v>44391</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45021</v>
+        <v>45212</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44771</v>
+        <v>45212</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>16500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>850</v>
+        <v>917</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44748</v>
+        <v>45212</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45042</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>17545</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>975</v>
+        <v>650</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>972</v>
+        <v>450</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44435</v>
+        <v>44398</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45212</v>
+        <v>44398</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M16" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45212</v>
+        <v>45021</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="K17" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>917</v>
+        <v>972</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45212</v>
+        <v>44412</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44377</v>
+        <v>44554</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M19" t="n">
-        <v>17600</v>
+        <v>5500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>978</v>
+        <v>550</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44405</v>
+        <v>44221</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>140</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44363</v>
+        <v>44748</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q21" t="n">
         <v>18</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44757</v>
+        <v>44755</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K22" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44533</v>
+        <v>44783</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K23" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44533</v>
+        <v>45043</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K24" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="L24" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>4500</v>
+        <v>19059</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>450</v>
+        <v>1059</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44769</v>
+        <v>45114</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45043</v>
+        <v>44771</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,41 +2220,41 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>19059</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1059</v>
+        <v>850</v>
       </c>
       <c r="Q26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44454</v>
+        <v>44762</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2304,13 +2304,13 @@
         <v>160</v>
       </c>
       <c r="K27" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L27" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M27" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44762</v>
+        <v>45035</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K28" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L28" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44412</v>
+        <v>44526</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,32 +2445,32 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M29" t="n">
-        <v>17500</v>
+        <v>5250</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>972</v>
+        <v>525</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L30" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M30" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="Q30" t="n">
         <v>10</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K31" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L31" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M31" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="Q31" t="n">
         <v>10</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44526</v>
+        <v>44742</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,41 +2652,41 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K32" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="L32" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="M32" t="n">
-        <v>3250</v>
+        <v>15500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>325</v>
+        <v>861</v>
       </c>
       <c r="Q32" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44433</v>
+        <v>44757</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2724,41 +2724,41 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q33" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44433</v>
+        <v>44454</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45035</v>
+        <v>44363</v>
       </c>
       <c r="E36" t="n">
         <v>15</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K36" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="Q36" t="n">
         <v>18</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45114</v>
+        <v>44435</v>
       </c>
       <c r="E37" t="n">
         <v>15</v>
@@ -3012,41 +3012,41 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L37" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M37" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q37" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44221</v>
+        <v>44435</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
@@ -3084,41 +3084,41 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K38" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="Q38" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44405</v>
+        <v>44211</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -504,29 +504,29 @@
         <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>4750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>972</v>
+        <v>475</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45042</v>
+        <v>44783</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,11 +569,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K3" t="n">
         <v>17000</v>
@@ -582,7 +582,7 @@
         <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>17545</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44769</v>
+        <v>44755</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
         <v>17000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44433</v>
+        <v>44554</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -708,41 +708,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44211</v>
+        <v>44742</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K7" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>4750</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>475</v>
+        <v>861</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44377</v>
+        <v>44398</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -942,7 +942,7 @@
         <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45212</v>
+        <v>45021</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="K10" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45212</v>
+        <v>44771</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>917</v>
+        <v>850</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45212</v>
+        <v>44748</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>45042</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>17545</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>650</v>
+        <v>975</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44435</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>450</v>
+        <v>972</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44398</v>
+        <v>45212</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L16" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M16" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45021</v>
+        <v>45212</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L17" t="n">
         <v>17000</v>
       </c>
-      <c r="L17" t="n">
-        <v>18000</v>
-      </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>972</v>
+        <v>917</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44412</v>
+        <v>45212</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1644,41 +1644,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44554</v>
+        <v>44377</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>5500</v>
+        <v>17600</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>550</v>
+        <v>978</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44221</v>
+        <v>44405</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>140</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44748</v>
+        <v>44363</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q21" t="n">
         <v>18</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44755</v>
+        <v>44757</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,32 +1941,32 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>6250</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>972</v>
+        <v>625</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44783</v>
+        <v>44533</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,32 +2013,32 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45043</v>
+        <v>44533</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="L24" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="M24" t="n">
-        <v>19059</v>
+        <v>4500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1059</v>
+        <v>450</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45114</v>
+        <v>44769</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K25" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44771</v>
+        <v>45043</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,41 +2220,41 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="K26" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>19059</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>850</v>
+        <v>1059</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44762</v>
+        <v>44454</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2304,13 +2304,13 @@
         <v>160</v>
       </c>
       <c r="K27" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L27" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45035</v>
+        <v>44762</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M28" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44526</v>
+        <v>44412</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,32 +2445,32 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K29" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>5250</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L30" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M30" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="Q30" t="n">
         <v>10</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L31" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M31" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="Q31" t="n">
         <v>10</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44742</v>
+        <v>44526</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2652,41 +2652,41 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K32" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="L32" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="M32" t="n">
-        <v>15500</v>
+        <v>3250</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>861</v>
+        <v>325</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44757</v>
+        <v>44433</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2724,41 +2724,41 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44454</v>
+        <v>44433</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K34" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44363</v>
+        <v>45035</v>
       </c>
       <c r="E36" t="n">
         <v>15</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q36" t="n">
         <v>18</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44435</v>
+        <v>45114</v>
       </c>
       <c r="E37" t="n">
         <v>15</v>
@@ -3012,41 +3012,41 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K37" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L37" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M37" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q37" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44435</v>
+        <v>44221</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
@@ -3084,41 +3084,41 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M38" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q38" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44405</v>
+        <v>44433</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>17000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45042</v>
+        <v>44433</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>17545</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>975</v>
+        <v>806</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44769</v>
+        <v>45035</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44433</v>
+        <v>44454</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44433</v>
+        <v>44757</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>6250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>806</v>
+        <v>625</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44211</v>
+        <v>44771</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
         <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="Q7" t="n">
         <v>10</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44377</v>
+        <v>45212</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>17600</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>978</v>
+        <v>1083</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44391</v>
+        <v>45212</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -996,25 +996,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>861</v>
+        <v>917</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>19500</v>
+        <v>6500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1083</v>
+        <v>650</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45212</v>
+        <v>44211</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="M11" t="n">
-        <v>16500</v>
+        <v>4750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>917</v>
+        <v>475</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45212</v>
+        <v>44776</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44742</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>650</v>
+        <v>861</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44762</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>4500</v>
+        <v>15500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>450</v>
+        <v>861</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44398</v>
+        <v>45021</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="K15" t="n">
         <v>17000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44398</v>
+        <v>44748</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K16" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45021</v>
+        <v>44554</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,32 +1581,32 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44412</v>
+        <v>44783</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44554</v>
+        <v>44398</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,32 +1725,32 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44221</v>
+        <v>44398</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,41 +1788,41 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L20" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M20" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>550</v>
+        <v>861</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44748</v>
+        <v>44391</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q21" t="n">
         <v>18</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44755</v>
+        <v>44769</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
         <v>17000</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44783</v>
+        <v>45043</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>19059</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>972</v>
+        <v>1059</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45043</v>
+        <v>44533</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,41 +2076,41 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>19059</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1059</v>
+        <v>650</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45114</v>
+        <v>44533</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L25" t="n">
         <v>5000</v>
       </c>
-      <c r="L25" t="n">
-        <v>6000</v>
-      </c>
       <c r="M25" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q25" t="n">
         <v>10</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44771</v>
+        <v>44377</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>17600</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>850</v>
+        <v>978</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44762</v>
+        <v>44363</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K27" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L27" t="n">
         <v>15000</v>
       </c>
-      <c r="L27" t="n">
-        <v>16000</v>
-      </c>
       <c r="M27" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45035</v>
+        <v>44526</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,32 +2373,32 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="M28" t="n">
-        <v>19500</v>
+        <v>5250</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1083</v>
+        <v>525</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L29" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M29" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="Q29" t="n">
         <v>10</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K30" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L30" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M30" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="Q30" t="n">
         <v>10</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44526</v>
+        <v>45042</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2580,41 +2580,41 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="K31" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L31" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>3250</v>
+        <v>17545</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>325</v>
+        <v>975</v>
       </c>
       <c r="Q31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44742</v>
+        <v>44405</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K32" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L32" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q32" t="n">
         <v>18</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44757</v>
+        <v>44755</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,32 +2733,32 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>6250</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44454</v>
+        <v>45114</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2808,29 +2808,29 @@
         <v>160</v>
       </c>
       <c r="K34" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M34" t="n">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1083</v>
+        <v>550</v>
       </c>
       <c r="Q34" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44776</v>
+        <v>44221</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,32 +2877,32 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M35" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q35" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44363</v>
+        <v>44435</v>
       </c>
       <c r="E36" t="n">
         <v>15</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q36" t="n">
         <v>18</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K37" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q37" t="n">
         <v>18</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44435</v>
+        <v>44412</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M38" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q38" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44221</v>
+        <v>45267</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L35" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q35" t="n">
         <v>10</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44435</v>
+        <v>45267</v>
       </c>
       <c r="E36" t="n">
         <v>15</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,32 +2949,32 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K36" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M36" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q36" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44435</v>
+        <v>44221</v>
       </c>
       <c r="E37" t="n">
         <v>15</v>
@@ -3012,41 +3012,41 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q37" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44412</v>
+        <v>44435</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
@@ -3089,11 +3089,11 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
         <v>17000</v>
@@ -3121,6 +3121,150 @@
         <v>18</v>
       </c>
       <c r="R38" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44435</v>
+      </c>
+      <c r="E39" t="n">
+        <v>15</v>
+      </c>
+      <c r="F39" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>120</v>
+      </c>
+      <c r="K39" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M39" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>806</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>18</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="E40" t="n">
+        <v>15</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>150</v>
+      </c>
+      <c r="K40" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>972</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>18</v>
+      </c>
+      <c r="R40" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Pepino dulce.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45035</v>
+        <v>44391</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1083</v>
+        <v>861</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44454</v>
+        <v>44398</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44757</v>
+        <v>44398</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -780,41 +780,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>6250</v>
+        <v>15500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>625</v>
+        <v>861</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44771</v>
+        <v>44454</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>850</v>
+        <v>1083</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45212</v>
+        <v>45042</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>17545</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1083</v>
+        <v>975</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45212</v>
+        <v>44554</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>16500</v>
+        <v>5500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>917</v>
+        <v>550</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45212</v>
+        <v>44405</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1068,41 +1068,41 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44211</v>
+        <v>44433</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>4750</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>475</v>
+        <v>972</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44776</v>
+        <v>44433</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44742</v>
+        <v>45267</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1284,41 +1284,41 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>861</v>
+        <v>750</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44762</v>
+        <v>45267</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1356,41 +1356,41 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L14" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>861</v>
+        <v>550</v>
       </c>
       <c r="Q14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45021</v>
+        <v>44755</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
         <v>17000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44748</v>
+        <v>44742</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>250</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>972</v>
+        <v>861</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44554</v>
+        <v>45043</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1572,41 +1572,41 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L17" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>5500</v>
+        <v>19059</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>550</v>
+        <v>1059</v>
       </c>
       <c r="Q17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44783</v>
+        <v>44412</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44398</v>
+        <v>44533</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1728,29 +1728,29 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>972</v>
+        <v>650</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44398</v>
+        <v>44533</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L20" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M20" t="n">
-        <v>15500</v>
+        <v>4500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>861</v>
+        <v>450</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44391</v>
+        <v>44211</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,32 +1869,32 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L21" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M21" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>861</v>
+        <v>475</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44769</v>
+        <v>44377</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
         <v>17000</v>
@@ -1950,7 +1950,7 @@
         <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45043</v>
+        <v>45035</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K23" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L23" t="n">
         <v>20000</v>
       </c>
       <c r="M23" t="n">
-        <v>19059</v>
+        <v>19500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1059</v>
+        <v>1083</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44533</v>
+        <v>45021</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>650</v>
+        <v>972</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44533</v>
+        <v>44762</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2148,41 +2148,41 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L25" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M25" t="n">
-        <v>4500</v>
+        <v>15500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>450</v>
+        <v>861</v>
       </c>
       <c r="Q25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44377</v>
+        <v>44776</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K26" t="n">
         <v>17000</v>
@@ -2238,7 +2238,7 @@
         <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44363</v>
+        <v>45212</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2292,25 +2292,25 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44526</v>
+        <v>45212</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2369,24 +2369,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K28" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L28" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="M28" t="n">
-        <v>5250</v>
+        <v>16500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>525</v>
+        <v>917</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44526</v>
+        <v>45212</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K29" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>425</v>
+        <v>650</v>
       </c>
       <c r="Q29" t="n">
         <v>10</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44526</v>
+        <v>44771</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K30" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>3250</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>325</v>
+        <v>850</v>
       </c>
       <c r="Q30" t="n">
         <v>10</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45042</v>
+        <v>44221</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2580,41 +2580,41 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="K31" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M31" t="n">
-        <v>17545</v>
+        <v>5500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>975</v>
+        <v>550</v>
       </c>
       <c r="Q31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44405</v>
+        <v>44769</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44755</v>
+        <v>44363</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45267</v>
+        <v>44757</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K35" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L35" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M35" t="n">
-        <v>7500</v>
+        <v>6250</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q35" t="n">
         <v>10</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45267</v>
+        <v>44783</v>
       </c>
       <c r="E36" t="n">
         <v>15</v>
@@ -2940,41 +2940,41 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cultivar XV región</t>
+          <t>Cultivar IV Región</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K36" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L36" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q36" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44221</v>
+        <v>44526</v>
       </c>
       <c r="E37" t="n">
         <v>15</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
         <v>5000</v>
       </c>
       <c r="L37" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M37" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q37" t="n">
         <v>10</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44435</v>
+        <v>44526</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,29 +3096,29 @@
         <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L38" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M38" t="n">
-        <v>17500</v>
+        <v>4250</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>972</v>
+        <v>425</v>
       </c>
       <c r="Q38" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44435</v>
+        <v>44526</v>
       </c>
       <c r="E39" t="n">
         <v>15</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cultivar IV Región</t>
+          <t>Cultivar XV región</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3168,29 +3168,29 @@
         <v>120</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>3250</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>806</v>
+        <v>325</v>
       </c>
       <c r="Q39" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44412</v>
+        <v>44748</v>
       </c>
       <c r="E40" t="n">
         <v>15</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K40" t="n">
         <v>17000</v>
